--- a/capiq_data/in_process_data/IQ276060.xlsx
+++ b/capiq_data/in_process_data/IQ276060.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6F23B7-373C-4358-9F87-CBA5EC2B6DD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AE4CDB-1EFB-4D51-BD9D-884F5771D910}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"9e596675-65f8-459e-82b4-5d962c26cd5d"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"d4c28fc8-296a-4faa-94a8-c8416da08249"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>132.21</v>
+        <v>47.923000000000002</v>
       </c>
       <c r="D2">
-        <v>1826.6959999999999</v>
+        <v>1209.9059999999999</v>
       </c>
       <c r="E2">
-        <v>762.89499999999998</v>
+        <v>608.29700000000003</v>
       </c>
       <c r="F2">
-        <v>763.13199999999995</v>
+        <v>402.51600000000002</v>
       </c>
       <c r="G2">
-        <v>2238.0709999999999</v>
+        <v>1483.002</v>
       </c>
       <c r="H2">
-        <v>3904.377</v>
+        <v>2459.6010000000001</v>
       </c>
       <c r="I2">
-        <v>344.29500000000002</v>
+        <v>283.11200000000002</v>
       </c>
       <c r="J2">
-        <v>420.44600000000003</v>
+        <v>125.258</v>
       </c>
       <c r="K2">
-        <v>42.768999999999998</v>
+        <v>173.53800000000001</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,164 +892,164 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>869.303</v>
+        <v>747.32399999999996</v>
       </c>
       <c r="O2">
-        <v>1616.7070000000001</v>
+        <v>922.11900000000003</v>
       </c>
       <c r="P2">
-        <v>494.274</v>
+        <v>321.56599999999997</v>
       </c>
       <c r="Q2">
-        <v>26.946000000000002</v>
+        <v>-8.8800000000000008</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>17000</v>
+        <v>13855</v>
       </c>
       <c r="T2">
-        <v>2287.67</v>
+        <v>1537.482</v>
       </c>
       <c r="U2">
-        <v>313.45400000000001</v>
+        <v>63.384</v>
       </c>
       <c r="V2">
-        <v>104.474</v>
+        <v>116.401</v>
       </c>
       <c r="W2">
-        <v>-36.484000000000002</v>
+        <v>-15.972</v>
       </c>
       <c r="X2">
-        <v>-28.971</v>
+        <v>-96.998000000000005</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-0.60399999999999998</v>
       </c>
       <c r="AA2">
-        <v>132.21</v>
+        <v>47.923000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>157.93299999999999</v>
+        <v>42.174999999999997</v>
       </c>
       <c r="D3">
-        <v>1883.6120000000001</v>
+        <v>1219.42</v>
       </c>
       <c r="E3">
-        <v>809.85</v>
+        <v>595.10500000000002</v>
       </c>
       <c r="F3">
-        <v>829.61400000000003</v>
+        <v>394.911</v>
       </c>
       <c r="G3">
-        <v>2261.7020000000002</v>
+        <v>1488.5229999999999</v>
       </c>
       <c r="H3">
-        <v>3933.424</v>
+        <v>2452.3629999999998</v>
       </c>
       <c r="I3">
-        <v>361.99700000000001</v>
+        <v>255.66399999999999</v>
       </c>
       <c r="J3">
-        <v>413.339</v>
+        <v>119.355</v>
       </c>
       <c r="K3">
-        <v>45.767000000000003</v>
+        <v>115.31</v>
       </c>
       <c r="L3">
-        <v>-77.878</v>
+        <v>-58.228000000000002</v>
       </c>
       <c r="M3">
-        <v>-7.3730000000000002</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="N3">
-        <v>781.96699999999998</v>
+        <v>711.58399999999995</v>
       </c>
       <c r="O3">
-        <v>1534.19</v>
+        <v>881.68200000000002</v>
       </c>
       <c r="P3">
-        <v>489.9</v>
+        <v>257.42</v>
       </c>
       <c r="Q3">
-        <v>21.242000000000001</v>
+        <v>5.59</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>2399.2339999999999</v>
+        <v>1570.681</v>
       </c>
       <c r="U3">
-        <v>334.69600000000003</v>
+        <v>68.974000000000004</v>
       </c>
       <c r="V3">
-        <v>118.39100000000001</v>
+        <v>93.813000000000002</v>
       </c>
       <c r="W3">
-        <v>-38.334000000000003</v>
+        <v>-16</v>
       </c>
       <c r="X3">
-        <v>-73.430000000000007</v>
+        <v>-49.81</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-3.7639999999999998</v>
       </c>
       <c r="AA3">
-        <v>157.93299999999999</v>
+        <v>42.174999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>169.88499999999999</v>
+        <v>14.82</v>
       </c>
       <c r="D4">
-        <v>2003.0219999999999</v>
+        <v>1225.04</v>
       </c>
       <c r="E4">
-        <v>870.43600000000004</v>
+        <v>606.38400000000001</v>
       </c>
       <c r="F4">
-        <v>862.39400000000001</v>
+        <v>394.916</v>
       </c>
       <c r="G4">
-        <v>2506.2579999999998</v>
+        <v>1491.4390000000001</v>
       </c>
       <c r="H4">
-        <v>4200.4350000000004</v>
+        <v>2437.8200000000002</v>
       </c>
       <c r="I4">
-        <v>394.08600000000001</v>
+        <v>299.33100000000002</v>
       </c>
       <c r="J4">
-        <v>200.46899999999999</v>
+        <v>124.002</v>
       </c>
       <c r="K4">
-        <v>49.22</v>
+        <v>96.548000000000002</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1078.7729999999999</v>
+        <v>692.45899999999995</v>
       </c>
       <c r="O4">
-        <v>1625.634</v>
+        <v>868.67600000000004</v>
       </c>
       <c r="P4">
-        <v>486.22699999999998</v>
+        <v>243.30500000000001</v>
       </c>
       <c r="Q4">
-        <v>131.00899999999999</v>
+        <v>-2.6930000000000001</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>2574.8009999999999</v>
+        <v>1569.144</v>
       </c>
       <c r="U4">
-        <v>465.70499999999998</v>
+        <v>66.281000000000006</v>
       </c>
       <c r="V4">
-        <v>191.078</v>
+        <v>75.284000000000006</v>
       </c>
       <c r="W4">
-        <v>-47.448999999999998</v>
+        <v>-16.573</v>
       </c>
       <c r="X4">
-        <v>-12.022</v>
+        <v>-56.709000000000003</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-0.78300000000000003</v>
       </c>
       <c r="AA4">
-        <v>169.88499999999999</v>
+        <v>14.82</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>182.12100000000001</v>
+        <v>56.021999999999998</v>
       </c>
       <c r="D5">
-        <v>2114.6469999999999</v>
+        <v>1199.3579999999999</v>
       </c>
       <c r="E5">
-        <v>944.98400000000004</v>
+        <v>548.28800000000001</v>
       </c>
       <c r="F5">
-        <v>912.99900000000002</v>
+        <v>395.851</v>
       </c>
       <c r="G5">
-        <v>2577.694</v>
+        <v>1458.0409999999999</v>
       </c>
       <c r="H5">
-        <v>4550.6450000000004</v>
+        <v>2379.6660000000002</v>
       </c>
       <c r="I5">
-        <v>447.68700000000001</v>
+        <v>284.99799999999999</v>
       </c>
       <c r="J5">
-        <v>163.416</v>
+        <v>119.116</v>
       </c>
       <c r="K5">
-        <v>213.58</v>
+        <v>4.1689999999999996</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1374.6079999999999</v>
+        <v>638.93499999999995</v>
       </c>
       <c r="O5">
-        <v>1919.14</v>
+        <v>811.65200000000004</v>
       </c>
       <c r="P5">
-        <v>607.42600000000004</v>
+        <v>146.04</v>
       </c>
       <c r="Q5">
-        <v>-105.042</v>
+        <v>72.234999999999999</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>2631.5050000000001</v>
+        <v>1568.0139999999999</v>
       </c>
       <c r="U5">
-        <v>360.66300000000001</v>
+        <v>138.51599999999999</v>
       </c>
       <c r="V5">
-        <v>250.50200000000001</v>
+        <v>225.977</v>
       </c>
       <c r="W5">
-        <v>-46.936</v>
+        <v>-16.526</v>
       </c>
       <c r="X5">
-        <v>53.231999999999999</v>
+        <v>-132.9</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="AA5">
-        <v>182.12100000000001</v>
+        <v>56.021999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>148.48400000000001</v>
+        <v>61.512999999999998</v>
       </c>
       <c r="D6">
-        <v>2076.904</v>
+        <v>1110.499</v>
       </c>
       <c r="E6">
-        <v>888.697</v>
+        <v>454.18</v>
       </c>
       <c r="F6">
-        <v>905.78499999999997</v>
+        <v>403.60899999999998</v>
       </c>
       <c r="G6">
-        <v>2694.9</v>
+        <v>1392.6110000000001</v>
       </c>
       <c r="H6">
-        <v>4716.0619999999999</v>
+        <v>2331.2460000000001</v>
       </c>
       <c r="I6">
-        <v>477.64800000000002</v>
+        <v>275.89299999999997</v>
       </c>
       <c r="J6">
-        <v>176.62899999999999</v>
+        <v>118.21899999999999</v>
       </c>
       <c r="K6">
-        <v>119.97</v>
+        <v>4.5259999999999998</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,164 +1224,164 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1387.925</v>
+        <v>553.81100000000004</v>
       </c>
       <c r="O6">
-        <v>1991.7829999999999</v>
+        <v>727.91800000000001</v>
       </c>
       <c r="P6">
-        <v>518.13800000000003</v>
+        <v>135.26499999999999</v>
       </c>
       <c r="Q6">
-        <v>-25.172000000000001</v>
+        <v>30.33</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>20000</v>
+        <v>13342</v>
       </c>
       <c r="T6">
-        <v>2724.279</v>
+        <v>1603.328</v>
       </c>
       <c r="U6">
-        <v>335.49099999999999</v>
+        <v>168.846</v>
       </c>
       <c r="V6">
-        <v>186.137</v>
+        <v>114.107</v>
       </c>
       <c r="W6">
-        <v>-46.354999999999997</v>
+        <v>-16.346</v>
       </c>
       <c r="X6">
-        <v>-145.226</v>
+        <v>-47.662999999999997</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>-0.67500000000000004</v>
       </c>
       <c r="AA6">
-        <v>148.48400000000001</v>
+        <v>61.512999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>187.51599999999999</v>
+        <v>34.536999999999999</v>
       </c>
       <c r="D7">
-        <v>2193.4450000000002</v>
+        <v>1125.2650000000001</v>
       </c>
       <c r="E7">
-        <v>977.44200000000001</v>
+        <v>484.08499999999998</v>
       </c>
       <c r="F7">
-        <v>974.33199999999999</v>
+        <v>383.029</v>
       </c>
       <c r="G7">
-        <v>2706.1979999999999</v>
+        <v>1496.627</v>
       </c>
       <c r="H7">
-        <v>4751.21</v>
+        <v>2431.2979999999998</v>
       </c>
       <c r="I7">
-        <v>447.65499999999997</v>
+        <v>342.85500000000002</v>
       </c>
       <c r="J7">
-        <v>193.96199999999999</v>
+        <v>117.956</v>
       </c>
       <c r="K7">
-        <v>117.637</v>
+        <v>3.879</v>
       </c>
       <c r="L7">
-        <v>-33.353999999999999</v>
+        <v>-1.9179999999999999</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>-1.9</v>
       </c>
       <c r="N7">
-        <v>1230.866</v>
+        <v>603.98099999999999</v>
       </c>
       <c r="O7">
-        <v>1877.6610000000001</v>
+        <v>779.98</v>
       </c>
       <c r="P7">
-        <v>526.1</v>
+        <v>132.45500000000001</v>
       </c>
       <c r="Q7">
-        <v>3.2639999999999998</v>
+        <v>52.744</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>2873.549</v>
+        <v>1651.318</v>
       </c>
       <c r="U7">
-        <v>338.755</v>
+        <v>221.59</v>
       </c>
       <c r="V7">
-        <v>106.238</v>
+        <v>67.47</v>
       </c>
       <c r="W7">
-        <v>-47.017000000000003</v>
+        <v>-16.372</v>
       </c>
       <c r="X7">
-        <v>-55.445</v>
+        <v>-9.6489999999999991</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>12.747</v>
       </c>
       <c r="AA7">
-        <v>187.51599999999999</v>
+        <v>34.536999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>190.70400000000001</v>
+        <v>54.499000000000002</v>
       </c>
       <c r="D8">
-        <v>2249.2750000000001</v>
+        <v>1194.7919999999999</v>
       </c>
       <c r="E8">
-        <v>1015.159</v>
+        <v>500.72500000000002</v>
       </c>
       <c r="F8">
-        <v>978.34299999999996</v>
+        <v>399.56200000000001</v>
       </c>
       <c r="G8">
-        <v>2698.7310000000002</v>
+        <v>1485.2639999999999</v>
       </c>
       <c r="H8">
-        <v>4761.308</v>
+        <v>2415.2489999999998</v>
       </c>
       <c r="I8">
-        <v>473.036</v>
+        <v>306.59699999999998</v>
       </c>
       <c r="J8">
-        <v>476.678</v>
+        <v>123.83</v>
       </c>
       <c r="K8">
-        <v>72.486000000000004</v>
+        <v>3.5670000000000002</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>962.91200000000003</v>
+        <v>570.34199999999998</v>
       </c>
       <c r="O8">
-        <v>1867.1559999999999</v>
+        <v>755.28</v>
       </c>
       <c r="P8">
-        <v>551.72</v>
+        <v>138.017</v>
       </c>
       <c r="Q8">
-        <v>-89.009</v>
+        <v>-22.300999999999998</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>2894.152</v>
+        <v>1659.9690000000001</v>
       </c>
       <c r="U8">
-        <v>249.74600000000001</v>
+        <v>199.28899999999999</v>
       </c>
       <c r="V8">
-        <v>131.982</v>
+        <v>37.773000000000003</v>
       </c>
       <c r="W8">
-        <v>-58.344000000000001</v>
+        <v>-16.872</v>
       </c>
       <c r="X8">
-        <v>-152.90799999999999</v>
+        <v>-30.629000000000001</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>-1E-3</v>
       </c>
       <c r="AA8">
-        <v>190.70400000000001</v>
+        <v>54.499000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>155.39400000000001</v>
+        <v>59.953000000000003</v>
       </c>
       <c r="D9">
-        <v>2281.2049999999999</v>
+        <v>1203.4000000000001</v>
       </c>
       <c r="E9">
-        <v>1022.1849999999999</v>
+        <v>479.74200000000002</v>
       </c>
       <c r="F9">
-        <v>993.96</v>
+        <v>402.56</v>
       </c>
       <c r="G9">
-        <v>2874.953</v>
+        <v>1479.2860000000001</v>
       </c>
       <c r="H9">
-        <v>4983.7439999999997</v>
+        <v>2417.0059999999999</v>
       </c>
       <c r="I9">
-        <v>439.59500000000003</v>
+        <v>333.21</v>
       </c>
       <c r="J9">
-        <v>483.57600000000002</v>
+        <v>118.64100000000001</v>
       </c>
       <c r="K9">
-        <v>75.998000000000005</v>
+        <v>3.3450000000000002</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,37 +1473,37 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1083.201</v>
+        <v>623.70500000000004</v>
       </c>
       <c r="O9">
-        <v>2015.3810000000001</v>
+        <v>805.53599999999994</v>
       </c>
       <c r="P9">
-        <v>565.96600000000001</v>
+        <v>132.60599999999999</v>
       </c>
       <c r="Q9">
-        <v>171.05699999999999</v>
+        <v>19.181000000000001</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>2968.3629999999998</v>
+        <v>1611.47</v>
       </c>
       <c r="U9">
-        <v>420.803</v>
+        <v>218.47</v>
       </c>
       <c r="V9">
-        <v>337.88900000000001</v>
+        <v>164.137</v>
       </c>
       <c r="W9">
-        <v>-56.637</v>
+        <v>-16.745999999999999</v>
       </c>
       <c r="X9">
-        <v>-114.12</v>
+        <v>-100.10899999999999</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,42 +1512,42 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>155.39400000000001</v>
+        <v>59.953000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>156.267</v>
+        <v>62.578000000000003</v>
       </c>
       <c r="D10">
-        <v>2226.12</v>
+        <v>1120.441</v>
       </c>
       <c r="E10">
-        <v>940.02</v>
+        <v>423.24</v>
       </c>
       <c r="F10">
-        <v>969.52499999999998</v>
+        <v>413.06099999999998</v>
       </c>
       <c r="G10">
-        <v>2900.64</v>
+        <v>1484.9469999999999</v>
       </c>
       <c r="H10">
-        <v>5014.598</v>
+        <v>2437.4479999999999</v>
       </c>
       <c r="I10">
-        <v>428.78199999999998</v>
+        <v>290.80700000000002</v>
       </c>
       <c r="J10">
-        <v>471.048</v>
+        <v>119.693</v>
       </c>
       <c r="K10">
-        <v>79.070999999999998</v>
+        <v>2.9670000000000001</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,164 +1556,164 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1080.0029999999999</v>
+        <v>586.26599999999996</v>
       </c>
       <c r="O10">
-        <v>1897.232</v>
+        <v>769.75</v>
       </c>
       <c r="P10">
-        <v>568.64400000000001</v>
+        <v>129.16499999999999</v>
       </c>
       <c r="Q10">
-        <v>31.26</v>
+        <v>-9.9420000000000002</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>21100</v>
+        <v>13183</v>
       </c>
       <c r="T10">
-        <v>3117.366</v>
+        <v>1667.6980000000001</v>
       </c>
       <c r="U10">
-        <v>452.06299999999999</v>
+        <v>208.52799999999999</v>
       </c>
       <c r="V10">
-        <v>240.08600000000001</v>
+        <v>34.090000000000003</v>
       </c>
       <c r="W10">
-        <v>-55.415999999999997</v>
+        <v>-16.477</v>
       </c>
       <c r="X10">
-        <v>-71.962999999999994</v>
+        <v>-17.666</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>8.9589999999999996</v>
       </c>
       <c r="AA10">
-        <v>156.267</v>
+        <v>62.578000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>211.83799999999999</v>
+        <v>52.404000000000003</v>
       </c>
       <c r="D11">
-        <v>2280.4349999999999</v>
+        <v>1139.269</v>
       </c>
       <c r="E11">
-        <v>1031.92</v>
+        <v>454.98099999999999</v>
       </c>
       <c r="F11">
-        <v>1031.7360000000001</v>
+        <v>410.10899999999998</v>
       </c>
       <c r="G11">
-        <v>2923.4279999999999</v>
+        <v>1530.316</v>
       </c>
       <c r="H11">
-        <v>5013.7280000000001</v>
+        <v>2492.7429999999999</v>
       </c>
       <c r="I11">
-        <v>431.84800000000001</v>
+        <v>301.27600000000001</v>
       </c>
       <c r="J11">
-        <v>458.084</v>
+        <v>127.56399999999999</v>
       </c>
       <c r="K11">
-        <v>73.602000000000004</v>
+        <v>2.7930000000000001</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>-0.17399999999999999</v>
       </c>
       <c r="M11">
-        <v>-43.749000000000002</v>
+        <v>-0.123</v>
       </c>
       <c r="N11">
-        <v>989.42200000000003</v>
+        <v>579.98500000000001</v>
       </c>
       <c r="O11">
-        <v>1795.538</v>
+        <v>775.1</v>
       </c>
       <c r="P11">
-        <v>553.44299999999998</v>
+        <v>136.86199999999999</v>
       </c>
       <c r="Q11">
-        <v>33.453000000000003</v>
+        <v>10.057</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>3218.19</v>
+        <v>1717.643</v>
       </c>
       <c r="U11">
-        <v>485.51600000000002</v>
+        <v>218.58500000000001</v>
       </c>
       <c r="V11">
-        <v>176.417</v>
+        <v>49.654000000000003</v>
       </c>
       <c r="W11">
-        <v>-56.545999999999999</v>
+        <v>-16.504000000000001</v>
       </c>
       <c r="X11">
-        <v>-97.813999999999993</v>
+        <v>-15.728999999999999</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>-3.5640000000000001</v>
       </c>
       <c r="AA11">
-        <v>211.83799999999999</v>
+        <v>52.404000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>217.66</v>
+        <v>55.993000000000002</v>
       </c>
       <c r="D12">
-        <v>2381.5610000000001</v>
+        <v>1172.6610000000001</v>
       </c>
       <c r="E12">
-        <v>1075.5920000000001</v>
+        <v>464.46199999999999</v>
       </c>
       <c r="F12">
-        <v>1046.9839999999999</v>
+        <v>418.13299999999998</v>
       </c>
       <c r="G12">
-        <v>2962.1840000000002</v>
+        <v>1550.1189999999999</v>
       </c>
       <c r="H12">
-        <v>5030.1350000000002</v>
+        <v>2543.8449999999998</v>
       </c>
       <c r="I12">
-        <v>452.17899999999997</v>
+        <v>314.54199999999997</v>
       </c>
       <c r="J12">
-        <v>455.334</v>
+        <v>139.16300000000001</v>
       </c>
       <c r="K12">
-        <v>70.007000000000005</v>
+        <v>1.135</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1722,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>986.88499999999999</v>
+        <v>576.58500000000004</v>
       </c>
       <c r="O12">
-        <v>1787.94</v>
+        <v>786.72199999999998</v>
       </c>
       <c r="P12">
-        <v>550.84299999999996</v>
+        <v>145.61799999999999</v>
       </c>
       <c r="Q12">
-        <v>3.2250000000000001</v>
+        <v>-31.887</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>3242.1950000000002</v>
+        <v>1757.123</v>
       </c>
       <c r="U12">
-        <v>488.74099999999999</v>
+        <v>186.69800000000001</v>
       </c>
       <c r="V12">
-        <v>210.40600000000001</v>
+        <v>45.042999999999999</v>
       </c>
       <c r="W12">
-        <v>-67.003</v>
+        <v>-16.965</v>
       </c>
       <c r="X12">
-        <v>-152.172</v>
+        <v>-35.491</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="AA12">
-        <v>217.66</v>
+        <v>55.993000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>210.78899999999999</v>
+        <v>56.835999999999999</v>
       </c>
       <c r="D13">
-        <v>2398.5300000000002</v>
+        <v>1200.6690000000001</v>
       </c>
       <c r="E13">
-        <v>1082.1079999999999</v>
+        <v>462.04</v>
       </c>
       <c r="F13">
-        <v>1051.366</v>
+        <v>424.86399999999998</v>
       </c>
       <c r="G13">
-        <v>3049.0970000000002</v>
+        <v>1604.7139999999999</v>
       </c>
       <c r="H13">
-        <v>5251.549</v>
+        <v>2597.6770000000001</v>
       </c>
       <c r="I13">
-        <v>435.16500000000002</v>
+        <v>288.90800000000002</v>
       </c>
       <c r="J13">
-        <v>451.14499999999998</v>
+        <v>138.96299999999999</v>
       </c>
       <c r="K13">
-        <v>73.022999999999996</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1074.492</v>
+        <v>576.505</v>
       </c>
       <c r="O13">
-        <v>1882.41</v>
+        <v>790.18499999999995</v>
       </c>
       <c r="P13">
-        <v>551.66899999999998</v>
+        <v>143.96199999999999</v>
       </c>
       <c r="Q13">
-        <v>51.253999999999998</v>
+        <v>106.94</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>3369.1390000000001</v>
+        <v>1807.492</v>
       </c>
       <c r="U13">
-        <v>539.995</v>
+        <v>293.63799999999998</v>
       </c>
       <c r="V13">
-        <v>353.60500000000002</v>
+        <v>138.4</v>
       </c>
       <c r="W13">
-        <v>-65.138999999999996</v>
+        <v>-16.911999999999999</v>
       </c>
       <c r="X13">
-        <v>-118.50700000000001</v>
+        <v>-10.709</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="AA13">
-        <v>210.78899999999999</v>
+        <v>56.835999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>156.749</v>
+        <v>61.738</v>
       </c>
       <c r="D14">
-        <v>2377.232</v>
+        <v>1154.415</v>
       </c>
       <c r="E14">
-        <v>1101.6559999999999</v>
+        <v>431.89600000000002</v>
       </c>
       <c r="F14">
-        <v>1006.397</v>
+        <v>438.39499999999998</v>
       </c>
       <c r="G14">
-        <v>3044.2849999999999</v>
+        <v>1633.413</v>
       </c>
       <c r="H14">
-        <v>5266.3280000000004</v>
+        <v>2624.6779999999999</v>
       </c>
       <c r="I14">
-        <v>510.63400000000001</v>
+        <v>257.80599999999998</v>
       </c>
       <c r="J14">
-        <v>448.51299999999998</v>
+        <v>4.8949999999999996</v>
       </c>
       <c r="K14">
-        <v>66.856999999999999</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,120 +1888,120 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1195.79</v>
+        <v>706.64</v>
       </c>
       <c r="O14">
-        <v>1939.492</v>
+        <v>779.54300000000001</v>
       </c>
       <c r="P14">
-        <v>545.79899999999998</v>
+        <v>149.03</v>
       </c>
       <c r="Q14">
-        <v>-109.351</v>
+        <v>109.18600000000001</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>22500</v>
+        <v>12881</v>
       </c>
       <c r="T14">
-        <v>3326.8359999999998</v>
+        <v>1845.135</v>
       </c>
       <c r="U14">
-        <v>430.64400000000001</v>
+        <v>402.82400000000001</v>
       </c>
       <c r="V14">
-        <v>246.07</v>
+        <v>161.011</v>
       </c>
       <c r="W14">
-        <v>-63.771000000000001</v>
+        <v>-16.899999999999999</v>
       </c>
       <c r="X14">
-        <v>-222.376</v>
+        <v>-35.948999999999998</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>-0.121</v>
       </c>
       <c r="AA14">
-        <v>156.749</v>
+        <v>61.738</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>216.65299999999999</v>
+        <v>62.558999999999997</v>
       </c>
       <c r="D15">
-        <v>2385.627</v>
+        <v>1227.799</v>
       </c>
       <c r="E15">
-        <v>1159.556</v>
+        <v>472.971</v>
       </c>
       <c r="F15">
-        <v>1075.971</v>
+        <v>447.46499999999997</v>
       </c>
       <c r="G15">
-        <v>2995.6640000000002</v>
+        <v>1715.6949999999999</v>
       </c>
       <c r="H15">
-        <v>5234.2290000000003</v>
+        <v>2685.578</v>
       </c>
       <c r="I15">
-        <v>493.91500000000002</v>
+        <v>312.32100000000003</v>
       </c>
       <c r="J15">
-        <v>441.06799999999998</v>
+        <v>4.8949999999999996</v>
       </c>
       <c r="K15">
-        <v>104.167</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>-28.312999999999999</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>-5.8070000000000004</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="N15">
-        <v>1166.1369999999999</v>
+        <v>751.01300000000003</v>
       </c>
       <c r="O15">
-        <v>1905.6379999999999</v>
+        <v>827.46400000000006</v>
       </c>
       <c r="P15">
-        <v>577.70000000000005</v>
+        <v>147.45699999999999</v>
       </c>
       <c r="Q15">
-        <v>-55.08</v>
+        <v>31.908000000000001</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>3328.5909999999999</v>
+        <v>1858.114</v>
       </c>
       <c r="U15">
-        <v>375.56400000000002</v>
+        <v>434.73200000000003</v>
       </c>
       <c r="V15">
-        <v>167.518</v>
+        <v>93.051000000000002</v>
       </c>
       <c r="W15">
-        <v>-64.682000000000002</v>
+        <v>-16.864000000000001</v>
       </c>
       <c r="X15">
-        <v>-165.55699999999999</v>
+        <v>-50.393999999999998</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,42 +2010,42 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>216.65299999999999</v>
+        <v>62.558999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>205.91499999999999</v>
+        <v>66.619</v>
       </c>
       <c r="D16">
-        <v>2506.1039999999998</v>
+        <v>1255.9739999999999</v>
       </c>
       <c r="E16">
-        <v>1177.5429999999999</v>
+        <v>484.54700000000003</v>
       </c>
       <c r="F16">
-        <v>1080.6859999999999</v>
+        <v>459.827</v>
       </c>
       <c r="G16">
-        <v>3030.5529999999999</v>
+        <v>1780.345</v>
       </c>
       <c r="H16">
-        <v>5311.3119999999999</v>
+        <v>2753.0169999999998</v>
       </c>
       <c r="I16">
-        <v>513.82899999999995</v>
+        <v>314.78300000000002</v>
       </c>
       <c r="J16">
-        <v>435.48500000000001</v>
+        <v>4.8949999999999996</v>
       </c>
       <c r="K16">
-        <v>101.617</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,37 +2054,37 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1126.453</v>
+        <v>736.88800000000003</v>
       </c>
       <c r="O16">
-        <v>1863.288</v>
+        <v>816.45299999999997</v>
       </c>
       <c r="P16">
-        <v>570.45399999999995</v>
+        <v>145.08500000000001</v>
       </c>
       <c r="Q16">
-        <v>-43.856999999999999</v>
+        <v>51.399000000000001</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>3448.0239999999999</v>
+        <v>1936.5640000000001</v>
       </c>
       <c r="U16">
-        <v>331.70699999999999</v>
+        <v>486.13099999999997</v>
       </c>
       <c r="V16">
-        <v>160.94800000000001</v>
+        <v>68.843999999999994</v>
       </c>
       <c r="W16">
-        <v>-76.203000000000003</v>
+        <v>-18.173999999999999</v>
       </c>
       <c r="X16">
-        <v>-131.67099999999999</v>
+        <v>7.98</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,42 +2093,42 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>205.91499999999999</v>
+        <v>66.619</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>230.322</v>
+        <v>67.688999999999993</v>
       </c>
       <c r="D17">
-        <v>2562.2629999999999</v>
+        <v>1301.057</v>
       </c>
       <c r="E17">
-        <v>1234.884</v>
+        <v>501.858</v>
       </c>
       <c r="F17">
-        <v>1102.7840000000001</v>
+        <v>479.28300000000002</v>
       </c>
       <c r="G17">
-        <v>3043.663</v>
+        <v>1700.8109999999999</v>
       </c>
       <c r="H17">
-        <v>5326.4160000000002</v>
+        <v>2689.4960000000001</v>
       </c>
       <c r="I17">
-        <v>498.24400000000003</v>
+        <v>313.14699999999999</v>
       </c>
       <c r="J17">
-        <v>388.19099999999997</v>
+        <v>4.8949999999999996</v>
       </c>
       <c r="K17">
-        <v>48.390999999999998</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,37 +2137,37 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1156.7829999999999</v>
+        <v>651.27200000000005</v>
       </c>
       <c r="O17">
-        <v>1850.01</v>
+        <v>731.63199999999995</v>
       </c>
       <c r="P17">
-        <v>460.19200000000001</v>
+        <v>9.4849999999999994</v>
       </c>
       <c r="Q17">
-        <v>-11.973000000000001</v>
+        <v>-92.468000000000004</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>3476.4059999999999</v>
+        <v>1957.864</v>
       </c>
       <c r="U17">
-        <v>319.73399999999998</v>
+        <v>393.66300000000001</v>
       </c>
       <c r="V17">
-        <v>334.36700000000002</v>
+        <v>145.20599999999999</v>
       </c>
       <c r="W17">
-        <v>-74.38</v>
+        <v>-18.202999999999999</v>
       </c>
       <c r="X17">
-        <v>-233.45400000000001</v>
+        <v>-199.39699999999999</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2056,42 +2176,42 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>230.322</v>
+        <v>67.688999999999993</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>148.839</v>
+        <v>90.055999999999997</v>
       </c>
       <c r="D18">
-        <v>2510.9589999999998</v>
+        <v>1264.9549999999999</v>
       </c>
       <c r="E18">
-        <v>1172.924</v>
+        <v>480.89299999999997</v>
       </c>
       <c r="F18">
-        <v>1054.8009999999999</v>
+        <v>520.077</v>
       </c>
       <c r="G18">
-        <v>2967.549</v>
+        <v>1754.713</v>
       </c>
       <c r="H18">
-        <v>5283.049</v>
+        <v>2809.5729999999999</v>
       </c>
       <c r="I18">
-        <v>554.08799999999997</v>
+        <v>289.38799999999998</v>
       </c>
       <c r="J18">
-        <v>405.33300000000003</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>56.896000000000001</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,120 +2220,120 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1261.7159999999999</v>
+        <v>662.43399999999997</v>
       </c>
       <c r="O18">
-        <v>1998.9480000000001</v>
+        <v>741.60299999999995</v>
       </c>
       <c r="P18">
-        <v>485.63299999999998</v>
+        <v>9.4849999999999994</v>
       </c>
       <c r="Q18">
-        <v>-93.09</v>
+        <v>35.582999999999998</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>22300</v>
+        <v>13260</v>
       </c>
       <c r="T18">
-        <v>3284.1010000000001</v>
+        <v>2067.9699999999998</v>
       </c>
       <c r="U18">
-        <v>226.64400000000001</v>
+        <v>429.24599999999998</v>
       </c>
       <c r="V18">
-        <v>296.98099999999999</v>
+        <v>99.385999999999996</v>
       </c>
       <c r="W18">
-        <v>-72.444000000000003</v>
+        <v>-18.001999999999999</v>
       </c>
       <c r="X18">
-        <v>-227.441</v>
+        <v>1.171</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AA18">
-        <v>148.839</v>
+        <v>90.055999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>211.01499999999999</v>
+        <v>72.792000000000002</v>
       </c>
       <c r="D19">
-        <v>2439.6610000000001</v>
+        <v>1334.88</v>
       </c>
       <c r="E19">
-        <v>1198.153</v>
+        <v>520.22799999999995</v>
       </c>
       <c r="F19">
-        <v>1093.7429999999999</v>
+        <v>498.87599999999998</v>
       </c>
       <c r="G19">
-        <v>2946.6410000000001</v>
+        <v>1784.48</v>
       </c>
       <c r="H19">
-        <v>5210.9719999999998</v>
+        <v>2853.0650000000001</v>
       </c>
       <c r="I19">
-        <v>513.55100000000004</v>
+        <v>334.95600000000002</v>
       </c>
       <c r="J19">
-        <v>373.07</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>231.53299999999999</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>-28.332999999999998</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>-1.86</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1297.5450000000001</v>
+        <v>647.92100000000005</v>
       </c>
       <c r="O19">
-        <v>2000.703</v>
+        <v>731.34799999999996</v>
       </c>
       <c r="P19">
-        <v>630.01900000000001</v>
+        <v>9.4849999999999994</v>
       </c>
       <c r="Q19">
-        <v>16.783000000000001</v>
+        <v>-59.75</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>3210.2689999999998</v>
+        <v>2121.7170000000001</v>
       </c>
       <c r="U19">
-        <v>243.42699999999999</v>
+        <v>369.49599999999998</v>
       </c>
       <c r="V19">
-        <v>156.209</v>
+        <v>12.688000000000001</v>
       </c>
       <c r="W19">
-        <v>-73.393000000000001</v>
+        <v>-18.234999999999999</v>
       </c>
       <c r="X19">
-        <v>-39.996000000000002</v>
+        <v>-19.855</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,42 +2342,42 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>211.01499999999999</v>
+        <v>72.792000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>220.548</v>
+        <v>81.588999999999999</v>
       </c>
       <c r="D20">
-        <v>2522.5650000000001</v>
+        <v>1372.808</v>
       </c>
       <c r="E20">
-        <v>1197.856</v>
+        <v>531.71</v>
       </c>
       <c r="F20">
-        <v>1073.432</v>
+        <v>527.12900000000002</v>
       </c>
       <c r="G20">
-        <v>3523.7460000000001</v>
+        <v>1731.6679999999999</v>
       </c>
       <c r="H20">
-        <v>5826.9089999999997</v>
+        <v>2813.9589999999998</v>
       </c>
       <c r="I20">
-        <v>498.416</v>
+        <v>304.92500000000001</v>
       </c>
       <c r="J20">
-        <v>1349.6420000000001</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>30.495000000000001</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1047.1020000000001</v>
+        <v>629.49199999999996</v>
       </c>
       <c r="O20">
-        <v>2727.471</v>
+        <v>716.29499999999996</v>
       </c>
       <c r="P20">
-        <v>1406.412</v>
+        <v>9.4849999999999994</v>
       </c>
       <c r="Q20">
-        <v>576.35900000000004</v>
+        <v>-43.463000000000001</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>3099.4380000000001</v>
+        <v>2097.6640000000002</v>
       </c>
       <c r="U20">
-        <v>819.78599999999994</v>
+        <v>326.03300000000002</v>
       </c>
       <c r="V20">
-        <v>213.29599999999999</v>
+        <v>101.886</v>
       </c>
       <c r="W20">
-        <v>-80.513000000000005</v>
+        <v>-21.488</v>
       </c>
       <c r="X20">
-        <v>441.62599999999998</v>
+        <v>-107.997</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-10.19</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>220.548</v>
+        <v>81.588999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>192.20099999999999</v>
+        <v>88.108999999999995</v>
       </c>
       <c r="D21">
-        <v>2532.9</v>
+        <v>1428.3420000000001</v>
       </c>
       <c r="E21">
-        <v>1291.365</v>
+        <v>547.62199999999996</v>
       </c>
       <c r="F21">
-        <v>1061.8789999999999</v>
+        <v>548.16200000000003</v>
       </c>
       <c r="G21">
-        <v>3104.6860000000001</v>
+        <v>1881.0440000000001</v>
       </c>
       <c r="H21">
-        <v>5807.1530000000002</v>
+        <v>2986.0749999999998</v>
       </c>
       <c r="I21">
-        <v>582.47699999999998</v>
+        <v>336.06200000000001</v>
       </c>
       <c r="J21">
-        <v>1450.624</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>211.68600000000001</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1549.1969999999999</v>
+        <v>701.01</v>
       </c>
       <c r="O21">
-        <v>3361.1010000000001</v>
+        <v>792.04399999999998</v>
       </c>
       <c r="P21">
-        <v>1813.211</v>
+        <v>9.4849999999999994</v>
       </c>
       <c r="Q21">
-        <v>-561.63499999999999</v>
+        <v>120.387</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>2446.0520000000001</v>
+        <v>2194.0309999999999</v>
       </c>
       <c r="U21">
-        <v>258.15100000000001</v>
+        <v>446.42</v>
       </c>
       <c r="V21">
-        <v>366.42500000000001</v>
+        <v>169.00200000000001</v>
       </c>
       <c r="W21">
-        <v>-77.042000000000002</v>
+        <v>-21.440999999999999</v>
       </c>
       <c r="X21">
-        <v>-365.03</v>
+        <v>-11.952</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-5.4969999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>192.20099999999999</v>
+        <v>88.108999999999995</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>145.232</v>
+        <v>103.834</v>
       </c>
       <c r="D22">
-        <v>2478.2579999999998</v>
+        <v>1390.606</v>
       </c>
       <c r="E22">
-        <v>1209.6410000000001</v>
+        <v>518.625</v>
       </c>
       <c r="F22">
-        <v>1002.375</v>
+        <v>587.37400000000002</v>
       </c>
       <c r="G22">
-        <v>3048.6419999999998</v>
+        <v>1985.539</v>
       </c>
       <c r="H22">
-        <v>5857.7550000000001</v>
+        <v>3107.9209999999998</v>
       </c>
       <c r="I22">
-        <v>583.47400000000005</v>
+        <v>319.25400000000002</v>
       </c>
       <c r="J22">
-        <v>1388.414</v>
+        <v>4.8949999999999996</v>
       </c>
       <c r="K22">
-        <v>353.072</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,164 +2552,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1788.5340000000001</v>
+        <v>695.351</v>
       </c>
       <c r="O22">
-        <v>3505.0410000000002</v>
+        <v>818.94500000000005</v>
       </c>
       <c r="P22">
-        <v>1988.8320000000001</v>
+        <v>9.4849999999999994</v>
       </c>
       <c r="Q22">
-        <v>31.984999999999999</v>
+        <v>98.474000000000004</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>24400</v>
+        <v>14297</v>
       </c>
       <c r="T22">
-        <v>2352.7139999999999</v>
+        <v>2288.9760000000001</v>
       </c>
       <c r="U22">
-        <v>290.13600000000002</v>
+        <v>544.89400000000001</v>
       </c>
       <c r="V22">
-        <v>253.97399999999999</v>
+        <v>148.96700000000001</v>
       </c>
       <c r="W22">
-        <v>-71.248000000000005</v>
+        <v>-21.498999999999999</v>
       </c>
       <c r="X22">
-        <v>-99.150999999999996</v>
+        <v>-14.335000000000001</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-4.6950000000000003</v>
+        <v>4.0880000000000001</v>
       </c>
       <c r="AA22">
-        <v>145.232</v>
+        <v>103.834</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>186.71299999999999</v>
+        <v>86.233000000000004</v>
       </c>
       <c r="D23">
-        <v>2506.538</v>
+        <v>1419.117</v>
       </c>
       <c r="E23">
-        <v>1304.56</v>
+        <v>569.6</v>
       </c>
       <c r="F23">
-        <v>1045.0530000000001</v>
+        <v>570.327</v>
       </c>
       <c r="G23">
-        <v>3138.9609999999998</v>
+        <v>2018.1220000000001</v>
       </c>
       <c r="H23">
-        <v>5964.8389999999999</v>
+        <v>3149.3319999999999</v>
       </c>
       <c r="I23">
-        <v>620.41</v>
+        <v>357.875</v>
       </c>
       <c r="J23">
-        <v>1387.124</v>
+        <v>4.8949999999999996</v>
       </c>
       <c r="K23">
-        <v>569.36699999999996</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>-11.06</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>-125.014</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1880.44</v>
+        <v>698.97</v>
       </c>
       <c r="O23">
-        <v>3600.6390000000001</v>
+        <v>796.30899999999997</v>
       </c>
       <c r="P23">
-        <v>2093.3249999999998</v>
+        <v>9.4849999999999994</v>
       </c>
       <c r="Q23">
-        <v>-10.23</v>
+        <v>-51.011000000000003</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>2364.1999999999998</v>
+        <v>2353.0230000000001</v>
       </c>
       <c r="U23">
-        <v>279.90600000000001</v>
+        <v>493.88299999999998</v>
       </c>
       <c r="V23">
-        <v>160.637</v>
+        <v>26.876000000000001</v>
       </c>
       <c r="W23">
-        <v>-72.632000000000005</v>
+        <v>-21.591000000000001</v>
       </c>
       <c r="X23">
-        <v>-138.24799999999999</v>
+        <v>-29.375</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-7.1989999999999998</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>186.71299999999999</v>
+        <v>86.233000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>172.67599999999999</v>
+        <v>93.739000000000004</v>
       </c>
       <c r="D24">
-        <v>2563.6680000000001</v>
+        <v>1482.88</v>
       </c>
       <c r="E24">
-        <v>1310.3820000000001</v>
+        <v>608.35299999999995</v>
       </c>
       <c r="F24">
-        <v>1049.9059999999999</v>
+        <v>583.30499999999995</v>
       </c>
       <c r="G24">
-        <v>3190.2620000000002</v>
+        <v>1993.856</v>
       </c>
       <c r="H24">
-        <v>5964.8040000000001</v>
+        <v>3122.8270000000002</v>
       </c>
       <c r="I24">
-        <v>628.65899999999999</v>
+        <v>319.44499999999999</v>
       </c>
       <c r="J24">
-        <v>1765.809</v>
+        <v>4.8949999999999996</v>
       </c>
       <c r="K24">
-        <v>372.85399999999998</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1641.3440000000001</v>
+        <v>666.65</v>
       </c>
       <c r="O24">
-        <v>3722.23</v>
+        <v>766.96100000000001</v>
       </c>
       <c r="P24">
-        <v>2271.5830000000001</v>
+        <v>9.4849999999999994</v>
       </c>
       <c r="Q24">
-        <v>36.091000000000001</v>
+        <v>-40.341999999999999</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>2242.5740000000001</v>
+        <v>2355.866</v>
       </c>
       <c r="U24">
-        <v>315.99700000000001</v>
+        <v>453.541</v>
       </c>
       <c r="V24">
-        <v>182.45599999999999</v>
+        <v>73.647000000000006</v>
       </c>
       <c r="W24">
-        <v>-74.847999999999999</v>
+        <v>-26.123999999999999</v>
       </c>
       <c r="X24">
-        <v>-120.236</v>
+        <v>-119.261</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-3.141</v>
+        <v>27.413</v>
       </c>
       <c r="AA24">
-        <v>172.67599999999999</v>
+        <v>93.739000000000004</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>185.87299999999999</v>
+        <v>104.494</v>
       </c>
       <c r="D25">
-        <v>2596.288</v>
+        <v>1519.499</v>
       </c>
       <c r="E25">
-        <v>1326.3589999999999</v>
+        <v>610.76199999999994</v>
       </c>
       <c r="F25">
-        <v>1040.3</v>
+        <v>599.08699999999999</v>
       </c>
       <c r="G25">
-        <v>3129.192</v>
+        <v>1943.152</v>
       </c>
       <c r="H25">
-        <v>5885.509</v>
+        <v>3082.92</v>
       </c>
       <c r="I25">
-        <v>623.745</v>
+        <v>344.976</v>
       </c>
       <c r="J25">
-        <v>1874.1320000000001</v>
+        <v>4.8949999999999996</v>
       </c>
       <c r="K25">
-        <v>387.68400000000003</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1536.3109999999999</v>
+        <v>702.27</v>
       </c>
       <c r="O25">
-        <v>3724.473</v>
+        <v>806.37300000000005</v>
       </c>
       <c r="P25">
-        <v>2278.3040000000001</v>
+        <v>9.4849999999999994</v>
       </c>
       <c r="Q25">
-        <v>-30.015999999999998</v>
+        <v>-26.187000000000001</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>2161.0360000000001</v>
+        <v>2276.547</v>
       </c>
       <c r="U25">
-        <v>285.98099999999999</v>
+        <v>427.35399999999998</v>
       </c>
       <c r="V25">
-        <v>345.83100000000002</v>
+        <v>212.459</v>
       </c>
       <c r="W25">
-        <v>-73.650999999999996</v>
+        <v>-25.420999999999999</v>
       </c>
       <c r="X25">
-        <v>-259.95800000000003</v>
+        <v>-190.458</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-8.9589999999999996</v>
+        <v>-13.061999999999999</v>
       </c>
       <c r="AA25">
-        <v>185.87299999999999</v>
+        <v>104.494</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>60.665999999999997</v>
+        <v>98.933000000000007</v>
       </c>
       <c r="D26">
-        <v>2470.71</v>
+        <v>1462.1579999999999</v>
       </c>
       <c r="E26">
-        <v>1223.096</v>
+        <v>566.60699999999997</v>
       </c>
       <c r="F26">
-        <v>979.84500000000003</v>
+        <v>716.83100000000002</v>
       </c>
       <c r="G26">
-        <v>3020.2289999999998</v>
+        <v>1862.086</v>
       </c>
       <c r="H26">
-        <v>5694.3069999999998</v>
+        <v>3046.0880000000002</v>
       </c>
       <c r="I26">
-        <v>650.09199999999998</v>
+        <v>334.82</v>
       </c>
       <c r="J26">
-        <v>1840.9459999999999</v>
+        <v>4.8949999999999996</v>
       </c>
       <c r="K26">
-        <v>386.14</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,247 +2884,247 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1628.9369999999999</v>
+        <v>706.32299999999998</v>
       </c>
       <c r="O26">
-        <v>3788.5390000000002</v>
+        <v>868.47299999999996</v>
       </c>
       <c r="P26">
-        <v>2247.0520000000001</v>
+        <v>9.4849999999999994</v>
       </c>
       <c r="Q26">
-        <v>-11.835000000000001</v>
+        <v>-78.882999999999996</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>24400</v>
+        <v>14708</v>
       </c>
       <c r="T26">
-        <v>1905.768</v>
+        <v>2177.6149999999998</v>
       </c>
       <c r="U26">
-        <v>274.14600000000002</v>
+        <v>348.471</v>
       </c>
       <c r="V26">
-        <v>335.15899999999999</v>
+        <v>123.771</v>
       </c>
       <c r="W26">
-        <v>-72.650000000000006</v>
+        <v>-24.76</v>
       </c>
       <c r="X26">
-        <v>-257.197</v>
+        <v>-153.779</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-14.804</v>
+        <v>-3.6829999999999998</v>
       </c>
       <c r="AA26">
-        <v>60.665999999999997</v>
+        <v>98.933000000000007</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>174.744</v>
+        <v>101.78700000000001</v>
       </c>
       <c r="D27">
-        <v>2541.1289999999999</v>
+        <v>1546.6579999999999</v>
       </c>
       <c r="E27">
-        <v>1325.2180000000001</v>
+        <v>611.12599999999998</v>
       </c>
       <c r="F27">
-        <v>1019.192</v>
+        <v>632.08799999999997</v>
       </c>
       <c r="G27">
-        <v>3096.183</v>
+        <v>1869.231</v>
       </c>
       <c r="H27">
-        <v>5782.549</v>
+        <v>3073.056</v>
       </c>
       <c r="I27">
-        <v>672.471</v>
+        <v>378.43200000000002</v>
       </c>
       <c r="J27">
-        <v>1847.7170000000001</v>
+        <v>4.8949999999999996</v>
       </c>
       <c r="K27">
-        <v>421.55500000000001</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>-9.1669999999999998</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>-6.2350000000000003</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>1688.43</v>
+        <v>674.53800000000001</v>
       </c>
       <c r="O27">
-        <v>3866.0259999999998</v>
+        <v>859.601</v>
       </c>
       <c r="P27">
-        <v>2289.3409999999999</v>
+        <v>9.4849999999999994</v>
       </c>
       <c r="Q27">
-        <v>-35.344999999999999</v>
+        <v>-22.998999999999999</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>1916.5229999999999</v>
+        <v>2213.4549999999999</v>
       </c>
       <c r="U27">
-        <v>238.80099999999999</v>
+        <v>325.47199999999998</v>
       </c>
       <c r="V27">
-        <v>180.946</v>
+        <v>82.412999999999997</v>
       </c>
       <c r="W27">
-        <v>-72.117999999999995</v>
+        <v>-24.518999999999998</v>
       </c>
       <c r="X27">
-        <v>-183.2</v>
+        <v>-85.156000000000006</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-7.0670000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>174.744</v>
+        <v>101.78700000000001</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
+        <v>104.791</v>
+      </c>
+      <c r="D28">
+        <v>1601.011</v>
+      </c>
+      <c r="E28">
+        <v>637.81299999999999</v>
+      </c>
+      <c r="F28">
+        <v>640.46500000000003</v>
+      </c>
+      <c r="G28">
+        <v>2001.671</v>
+      </c>
+      <c r="H28">
+        <v>3239.011</v>
+      </c>
+      <c r="I28">
+        <v>386.89699999999999</v>
+      </c>
+      <c r="J28">
+        <v>4.8949999999999996</v>
+      </c>
+      <c r="K28">
+        <v>6.2220000000000004</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>684.19600000000003</v>
+      </c>
+      <c r="O28">
+        <v>876.38800000000003</v>
+      </c>
+      <c r="P28">
+        <v>15.707000000000001</v>
+      </c>
+      <c r="Q28">
+        <v>63.917999999999999</v>
+      </c>
+      <c r="R28">
+        <v>39263</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>2362.623</v>
+      </c>
+      <c r="U28">
+        <v>389.39</v>
+      </c>
+      <c r="V28">
         <v>97.921000000000006</v>
       </c>
-      <c r="D28">
-        <v>2615.2689999999998</v>
-      </c>
-      <c r="E28">
-        <v>1369.626</v>
-      </c>
-      <c r="F28">
-        <v>1042.53</v>
-      </c>
-      <c r="G28">
-        <v>3186.3470000000002</v>
-      </c>
-      <c r="H28">
-        <v>5861.8810000000003</v>
-      </c>
-      <c r="I28">
-        <v>692.68899999999996</v>
-      </c>
-      <c r="J28">
-        <v>2267.8719999999998</v>
-      </c>
-      <c r="K28">
-        <v>129.066</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>1410.578</v>
-      </c>
-      <c r="O28">
-        <v>4013.6849999999999</v>
-      </c>
-      <c r="P28">
-        <v>2426.17</v>
-      </c>
-      <c r="Q28">
-        <v>36.264000000000003</v>
-      </c>
-      <c r="R28">
-        <v>42916</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>1848.1959999999999</v>
-      </c>
-      <c r="U28">
-        <v>275.065</v>
-      </c>
-      <c r="V28">
-        <v>191.232</v>
-      </c>
       <c r="W28">
-        <v>-79.519000000000005</v>
+        <v>-29.545999999999999</v>
       </c>
       <c r="X28">
-        <v>-121.28400000000001</v>
+        <v>9.5419999999999998</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-6.2329999999999997</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>97.921000000000006</v>
+        <v>104.791</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>162.006</v>
+        <v>109.15</v>
       </c>
       <c r="D29">
-        <v>2635.9989999999998</v>
+        <v>1658.5920000000001</v>
       </c>
       <c r="E29">
-        <v>1373.3230000000001</v>
+        <v>674.78700000000003</v>
       </c>
       <c r="F29">
-        <v>1017.6609999999999</v>
+        <v>659.58900000000006</v>
       </c>
       <c r="G29">
-        <v>3175.06</v>
+        <v>1778.7180000000001</v>
       </c>
       <c r="H29">
-        <v>5825.06</v>
+        <v>3059.9450000000002</v>
       </c>
       <c r="I29">
-        <v>713.45299999999997</v>
+        <v>377.315</v>
       </c>
       <c r="J29">
-        <v>2270.0010000000002</v>
+        <v>4.8949999999999996</v>
       </c>
       <c r="K29">
-        <v>11.348000000000001</v>
+        <v>144.214</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1392.5229999999999</v>
+        <v>877.50699999999995</v>
       </c>
       <c r="O29">
-        <v>3923.9749999999999</v>
+        <v>1075.7090000000001</v>
       </c>
       <c r="P29">
-        <v>2323.1849999999999</v>
+        <v>153.69900000000001</v>
       </c>
       <c r="Q29">
-        <v>9.51</v>
+        <v>-300.024</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>1901.085</v>
+        <v>1984.2360000000001</v>
       </c>
       <c r="U29">
-        <v>284.57499999999999</v>
+        <v>89.366</v>
       </c>
       <c r="V29">
-        <v>348.7</v>
+        <v>157.41800000000001</v>
       </c>
       <c r="W29">
-        <v>-73.867000000000004</v>
+        <v>-30.701000000000001</v>
       </c>
       <c r="X29">
-        <v>-314.608</v>
+        <v>-381.50200000000001</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-9.1300000000000008</v>
+        <v>-4.3140000000000001</v>
       </c>
       <c r="AA29">
-        <v>162.006</v>
+        <v>109.15</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>151.32900000000001</v>
+        <v>104.392</v>
       </c>
       <c r="D30">
-        <v>2632.6030000000001</v>
+        <v>1611.7529999999999</v>
       </c>
       <c r="E30">
-        <v>1325</v>
+        <v>602.65</v>
       </c>
       <c r="F30">
-        <v>1031.617</v>
+        <v>793.88099999999997</v>
       </c>
       <c r="G30">
-        <v>3206</v>
+        <v>1800.817</v>
       </c>
       <c r="H30">
-        <v>5804</v>
+        <v>3094.0279999999998</v>
       </c>
       <c r="I30">
-        <v>731</v>
+        <v>297.92899999999997</v>
       </c>
       <c r="J30">
-        <v>2248</v>
+        <v>4.8949999999999996</v>
       </c>
       <c r="K30">
-        <v>56</v>
+        <v>102.06</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,164 +3216,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1507</v>
+        <v>826.40300000000002</v>
       </c>
       <c r="O30">
-        <v>3976</v>
+        <v>995.92</v>
       </c>
       <c r="P30">
-        <v>2343</v>
+        <v>111.545</v>
       </c>
       <c r="Q30">
-        <v>42.570999999999998</v>
+        <v>24.071000000000002</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>24400</v>
+        <v>15732</v>
       </c>
       <c r="T30">
-        <v>1828</v>
+        <v>2098.1080000000002</v>
       </c>
       <c r="U30">
-        <v>327</v>
+        <v>113.437</v>
       </c>
       <c r="V30">
-        <v>336.12200000000001</v>
+        <v>131.12299999999999</v>
       </c>
       <c r="W30">
-        <v>-67.495999999999995</v>
+        <v>-28.327000000000002</v>
       </c>
       <c r="X30">
-        <v>-247.90799999999999</v>
+        <v>-56.771000000000001</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-12.57</v>
+        <v>-2.1379999999999999</v>
       </c>
       <c r="AA30">
-        <v>151.32900000000001</v>
+        <v>104.392</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>232</v>
+        <v>114.238</v>
       </c>
       <c r="D31">
-        <v>2766</v>
+        <v>1661.046</v>
       </c>
       <c r="E31">
-        <v>1428.2329999999999</v>
+        <v>644.93299999999999</v>
       </c>
       <c r="F31">
-        <v>1092</v>
+        <v>679.93399999999997</v>
       </c>
       <c r="G31">
-        <v>3307.1619999999998</v>
+        <v>1854.521</v>
       </c>
       <c r="H31">
-        <v>5902.8109999999997</v>
+        <v>3155.8330000000001</v>
       </c>
       <c r="I31">
-        <v>748.37199999999996</v>
+        <v>339.54399999999998</v>
       </c>
       <c r="J31">
-        <v>2244.4059999999999</v>
+        <v>4.8949999999999996</v>
       </c>
       <c r="K31">
-        <v>137.643</v>
+        <v>329.517</v>
       </c>
       <c r="L31">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>-25</v>
+        <v>-5.3999999999999999E-2</v>
       </c>
       <c r="N31">
-        <v>1504.3320000000001</v>
+        <v>993.50900000000001</v>
       </c>
       <c r="O31">
-        <v>3976.9050000000002</v>
+        <v>1165.606</v>
       </c>
       <c r="P31">
-        <v>2412.328</v>
+        <v>339.00200000000001</v>
       </c>
       <c r="Q31">
-        <v>-25</v>
+        <v>3.992</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>1925.9059999999999</v>
+        <v>1990.2270000000001</v>
       </c>
       <c r="U31">
-        <v>302.01499999999999</v>
+        <v>117.429</v>
       </c>
       <c r="V31">
-        <v>147</v>
+        <v>13.308</v>
       </c>
       <c r="W31">
-        <v>-72</v>
+        <v>-28.064</v>
       </c>
       <c r="X31">
-        <v>-146</v>
+        <v>7.7450000000000001</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-8</v>
+        <v>19.847999999999999</v>
       </c>
       <c r="AA31">
-        <v>232</v>
+        <v>114.238</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>237</v>
+        <v>113.179</v>
       </c>
       <c r="D32">
-        <v>2861</v>
+        <v>1756.856</v>
       </c>
       <c r="E32">
-        <v>1462.6030000000001</v>
+        <v>677.69500000000005</v>
       </c>
       <c r="F32">
-        <v>1112</v>
+        <v>705.87699999999995</v>
       </c>
       <c r="G32">
-        <v>3373.002</v>
+        <v>2037.9469999999999</v>
       </c>
       <c r="H32">
-        <v>5904.5720000000001</v>
+        <v>3390.5909999999999</v>
       </c>
       <c r="I32">
-        <v>735.26599999999996</v>
+        <v>326.58100000000002</v>
       </c>
       <c r="J32">
-        <v>2210.3580000000002</v>
+        <v>504.89499999999998</v>
       </c>
       <c r="K32">
-        <v>54.222000000000001</v>
+        <v>12.858000000000001</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1424.4949999999999</v>
+        <v>666.37</v>
       </c>
       <c r="O32">
-        <v>3854.3029999999999</v>
+        <v>1344.3789999999999</v>
       </c>
       <c r="P32">
-        <v>2294.752</v>
+        <v>522.34299999999996</v>
       </c>
       <c r="Q32">
-        <v>11</v>
+        <v>140.80500000000001</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>2050.2689999999998</v>
+        <v>2046.212</v>
       </c>
       <c r="U32">
-        <v>312.46100000000001</v>
+        <v>258.23399999999998</v>
       </c>
       <c r="V32">
-        <v>248</v>
+        <v>105.414</v>
       </c>
       <c r="W32">
-        <v>-83</v>
+        <v>-31.286999999999999</v>
       </c>
       <c r="X32">
-        <v>-185</v>
+        <v>114.598</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-6</v>
+        <v>-19.847999999999999</v>
       </c>
       <c r="AA32">
-        <v>237</v>
+        <v>113.179</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>104</v>
+        <v>140.023</v>
       </c>
       <c r="D33">
-        <v>2831</v>
+        <v>1839.4749999999999</v>
       </c>
       <c r="E33">
-        <v>1481.3</v>
+        <v>721.38699999999994</v>
       </c>
       <c r="F33">
-        <v>1079</v>
+        <v>742.34799999999996</v>
       </c>
       <c r="G33">
-        <v>3583.3440000000001</v>
+        <v>2171.3209999999999</v>
       </c>
       <c r="H33">
-        <v>5932.183</v>
+        <v>3536.4409999999998</v>
       </c>
       <c r="I33">
-        <v>730.21500000000003</v>
+        <v>314.44499999999999</v>
       </c>
       <c r="J33">
-        <v>2148.3989999999999</v>
+        <v>496.56200000000001</v>
       </c>
       <c r="K33">
-        <v>49.429000000000002</v>
+        <v>16.431000000000001</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1467.3320000000001</v>
+        <v>734.86400000000003</v>
       </c>
       <c r="O33">
-        <v>3832.1289999999999</v>
+        <v>1408.35</v>
       </c>
       <c r="P33">
-        <v>2234.8009999999999</v>
+        <v>525.91600000000005</v>
       </c>
       <c r="Q33">
-        <v>204</v>
+        <v>106.18300000000001</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>2100.0540000000001</v>
+        <v>2128.0909999999999</v>
       </c>
       <c r="U33">
-        <v>516.85</v>
+        <v>364.41699999999997</v>
       </c>
       <c r="V33">
-        <v>348</v>
+        <v>216.595</v>
       </c>
       <c r="W33">
-        <v>-77</v>
+        <v>-31.033000000000001</v>
       </c>
       <c r="X33">
-        <v>-106</v>
+        <v>-52.462000000000003</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>2</v>
+        <v>-6.4859999999999998</v>
       </c>
       <c r="AA33">
-        <v>104</v>
+        <v>140.023</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>209</v>
+        <v>107.91500000000001</v>
       </c>
       <c r="D34">
-        <v>2763</v>
+        <v>1592.655</v>
       </c>
       <c r="E34">
-        <v>1385</v>
+        <v>589.41600000000005</v>
       </c>
       <c r="F34">
-        <v>1065</v>
+        <v>800.76300000000003</v>
       </c>
       <c r="G34">
-        <v>3557</v>
+        <v>2144.1089999999999</v>
       </c>
       <c r="H34">
-        <v>5873</v>
+        <v>3515.4169999999999</v>
       </c>
       <c r="I34">
-        <v>678</v>
+        <v>290.80200000000002</v>
       </c>
       <c r="J34">
-        <v>2090</v>
+        <v>488.22800000000001</v>
       </c>
       <c r="K34">
-        <v>49</v>
+        <v>19.96</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1501</v>
+        <v>761.73400000000004</v>
       </c>
       <c r="O34">
-        <v>3780</v>
+        <v>1481.6120000000001</v>
       </c>
       <c r="P34">
-        <v>2220</v>
+        <v>529.44500000000005</v>
       </c>
       <c r="Q34">
-        <v>21</v>
+        <v>31.873000000000001</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>23100</v>
+        <v>16374</v>
       </c>
       <c r="T34">
-        <v>2093</v>
+        <v>2033.8050000000001</v>
       </c>
       <c r="U34">
-        <v>538</v>
+        <v>396.29</v>
       </c>
       <c r="V34">
-        <v>314</v>
+        <v>194.749</v>
       </c>
       <c r="W34">
-        <v>-70</v>
+        <v>-31.12</v>
       </c>
       <c r="X34">
-        <v>-233</v>
+        <v>-106.691</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>-1E-3</v>
       </c>
       <c r="AA34">
-        <v>209</v>
+        <v>107.91500000000001</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>253</v>
+        <v>96.378</v>
       </c>
       <c r="D35">
-        <v>2799</v>
+        <v>1465.248</v>
       </c>
       <c r="E35">
-        <v>1485</v>
+        <v>559.31500000000005</v>
       </c>
       <c r="F35">
-        <v>1095</v>
+        <v>629.41499999999996</v>
       </c>
       <c r="G35">
-        <v>3508</v>
+        <v>1904.2909999999999</v>
       </c>
       <c r="H35">
-        <v>6014</v>
+        <v>3270.5050000000001</v>
       </c>
       <c r="I35">
-        <v>741</v>
+        <v>254.33699999999999</v>
       </c>
       <c r="J35">
-        <v>2077</v>
+        <v>479.89499999999998</v>
       </c>
       <c r="K35">
-        <v>52</v>
+        <v>20.827000000000002</v>
       </c>
       <c r="L35">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>-14</v>
+        <v>-0.86899999999999999</v>
       </c>
       <c r="N35">
-        <v>1462</v>
+        <v>570.78300000000002</v>
       </c>
       <c r="O35">
-        <v>3862</v>
+        <v>1283.624</v>
       </c>
       <c r="P35">
-        <v>2406</v>
+        <v>530.31200000000001</v>
       </c>
       <c r="Q35">
-        <v>-146</v>
+        <v>-138.72</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>2152</v>
+        <v>1986.8810000000001</v>
       </c>
       <c r="U35">
-        <v>392</v>
+        <v>257.57</v>
       </c>
       <c r="V35">
-        <v>127</v>
+        <v>42.515999999999998</v>
       </c>
       <c r="W35">
-        <v>-76</v>
+        <v>-30.614999999999998</v>
       </c>
       <c r="X35">
-        <v>-221</v>
+        <v>-150.98699999999999</v>
       </c>
       <c r="Y35">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>253</v>
+        <v>96.378</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>260</v>
+        <v>92.465999999999994</v>
       </c>
       <c r="D36">
-        <v>2893</v>
+        <v>1533.2629999999999</v>
       </c>
       <c r="E36">
-        <v>1503</v>
+        <v>582.43100000000004</v>
       </c>
       <c r="F36">
-        <v>1121</v>
+        <v>624.96799999999996</v>
       </c>
       <c r="G36">
-        <v>3456</v>
+        <v>2025.0250000000001</v>
       </c>
       <c r="H36">
-        <v>5992</v>
+        <v>3405.7649999999999</v>
       </c>
       <c r="I36">
-        <v>780</v>
+        <v>255.37299999999999</v>
       </c>
       <c r="J36">
-        <v>2080</v>
+        <v>467.39499999999998</v>
       </c>
       <c r="K36">
-        <v>51</v>
+        <v>25.498999999999999</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1452</v>
+        <v>581.61199999999997</v>
       </c>
       <c r="O36">
-        <v>3878</v>
+        <v>1295.087</v>
       </c>
       <c r="P36">
-        <v>2414</v>
+        <v>534.98400000000004</v>
       </c>
       <c r="Q36">
-        <v>-77</v>
+        <v>158.721</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>2114</v>
+        <v>2110.6779999999999</v>
       </c>
       <c r="U36">
-        <v>315</v>
+        <v>416.291</v>
       </c>
       <c r="V36">
-        <v>323</v>
+        <v>190.09399999999999</v>
       </c>
       <c r="W36">
-        <v>-87</v>
+        <v>-34.558999999999997</v>
       </c>
       <c r="X36">
-        <v>-365</v>
+        <v>-12.815</v>
       </c>
       <c r="Y36">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>260</v>
+        <v>92.465999999999994</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>233</v>
+        <v>144.56399999999999</v>
       </c>
       <c r="D37">
-        <v>2947</v>
+        <v>1589.665</v>
       </c>
       <c r="E37">
-        <v>1495</v>
+        <v>638.53099999999995</v>
       </c>
       <c r="F37">
-        <v>1099</v>
+        <v>659.94500000000005</v>
       </c>
       <c r="G37">
-        <v>3396</v>
+        <v>2284.7939999999999</v>
       </c>
       <c r="H37">
-        <v>5922</v>
+        <v>3745.049</v>
       </c>
       <c r="I37">
-        <v>723</v>
+        <v>279.66000000000003</v>
       </c>
       <c r="J37">
-        <v>1918</v>
+        <v>454.89499999999998</v>
       </c>
       <c r="K37">
-        <v>51</v>
+        <v>33.65</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1572</v>
+        <v>673.84400000000005</v>
       </c>
       <c r="O37">
-        <v>3850</v>
+        <v>1381.8240000000001</v>
       </c>
       <c r="P37">
-        <v>2401</v>
+        <v>534.80200000000002</v>
       </c>
       <c r="Q37">
-        <v>-29</v>
+        <v>255.744</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>2072</v>
+        <v>2363.2249999999999</v>
       </c>
       <c r="U37">
-        <v>286</v>
+        <v>672.03499999999997</v>
       </c>
       <c r="V37">
-        <v>320</v>
+        <v>277.12900000000002</v>
       </c>
       <c r="W37">
-        <v>0</v>
+        <v>-34.875</v>
       </c>
       <c r="X37">
-        <v>-289</v>
+        <v>1.8560000000000001</v>
       </c>
       <c r="Y37">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>233</v>
+        <v>144.56399999999999</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>103</v>
+        <v>97.058000000000007</v>
       </c>
       <c r="D38">
-        <v>2847</v>
+        <v>1633.8150000000001</v>
       </c>
       <c r="E38">
-        <v>1425</v>
+        <v>624.91</v>
       </c>
       <c r="F38">
-        <v>1081</v>
+        <v>684.19799999999998</v>
       </c>
       <c r="G38">
-        <v>3555</v>
+        <v>2131.5149999999999</v>
       </c>
       <c r="H38">
-        <v>6005</v>
+        <v>3726.3319999999999</v>
       </c>
       <c r="I38">
-        <v>719</v>
+        <v>300.791</v>
       </c>
       <c r="J38">
-        <v>1914</v>
+        <v>437.5</v>
       </c>
       <c r="K38">
-        <v>55</v>
+        <v>34.78</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,37 +3880,37 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1678</v>
+        <v>776.79899999999998</v>
       </c>
       <c r="O38">
-        <v>3945</v>
+        <v>1499.133</v>
       </c>
       <c r="P38">
-        <v>2215</v>
+        <v>525.40800000000002</v>
       </c>
       <c r="Q38">
-        <v>74</v>
+        <v>-212.16399999999999</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>23800</v>
+        <v>16500</v>
       </c>
       <c r="T38">
-        <v>2060</v>
+        <v>2227.1990000000001</v>
       </c>
       <c r="U38">
-        <v>360</v>
+        <v>459.87099999999998</v>
       </c>
       <c r="V38">
-        <v>272</v>
+        <v>222.65700000000001</v>
       </c>
       <c r="W38">
-        <v>0</v>
+        <v>-34.634999999999998</v>
       </c>
       <c r="X38">
-        <v>-148</v>
+        <v>-251.584</v>
       </c>
       <c r="Y38">
         <v>0</v>
@@ -3799,81 +3919,81 @@
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>103</v>
+        <v>97.058000000000007</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>173</v>
+        <v>99.173000000000002</v>
       </c>
       <c r="D39">
-        <v>3001</v>
+        <v>1672.354</v>
       </c>
       <c r="E39">
-        <v>1613</v>
+        <v>688.62800000000004</v>
       </c>
       <c r="F39">
-        <v>1121</v>
+        <v>705.74199999999996</v>
       </c>
       <c r="G39">
-        <v>4914</v>
+        <v>2227.8229999999999</v>
       </c>
       <c r="H39">
-        <v>7177</v>
+        <v>3810.7750000000001</v>
       </c>
       <c r="I39">
-        <v>863</v>
+        <v>314.03899999999999</v>
       </c>
       <c r="J39">
-        <v>3303</v>
+        <v>425</v>
       </c>
       <c r="K39">
-        <v>17</v>
+        <v>35.247</v>
       </c>
       <c r="L39">
-        <v>-45</v>
+        <v>-12.494</v>
       </c>
       <c r="M39">
-        <v>-345</v>
+        <v>-8.3330000000000002</v>
       </c>
       <c r="N39">
-        <v>1500</v>
+        <v>733.90800000000002</v>
       </c>
       <c r="O39">
-        <v>5147</v>
+        <v>1452.0709999999999</v>
       </c>
       <c r="P39">
-        <v>3341</v>
+        <v>517.54200000000003</v>
       </c>
       <c r="Q39">
-        <v>1132</v>
+        <v>88.597999999999999</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>2030</v>
+        <v>2358.7040000000002</v>
       </c>
       <c r="U39">
-        <v>1492</v>
+        <v>548.46900000000005</v>
       </c>
       <c r="V39">
-        <v>244</v>
+        <v>113.191</v>
       </c>
       <c r="W39">
-        <v>-78</v>
+        <v>-34.075000000000003</v>
       </c>
       <c r="X39">
-        <v>955</v>
+        <v>-7.2169999999999996</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -3882,42 +4002,42 @@
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>173</v>
+        <v>99.173000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>114</v>
+        <v>129.077</v>
       </c>
       <c r="D40">
-        <v>2837</v>
+        <v>1783.6959999999999</v>
       </c>
       <c r="E40">
-        <v>1460</v>
+        <v>725.19600000000003</v>
       </c>
       <c r="F40">
-        <v>1016</v>
+        <v>747.08600000000001</v>
       </c>
       <c r="G40">
-        <v>4918</v>
+        <v>2122.4479999999999</v>
       </c>
       <c r="H40">
-        <v>7194</v>
+        <v>3731.9279999999999</v>
       </c>
       <c r="I40">
-        <v>770</v>
+        <v>347.505</v>
       </c>
       <c r="J40">
-        <v>3301</v>
+        <v>412.71100000000001</v>
       </c>
       <c r="K40">
-        <v>15</v>
+        <v>38.329000000000001</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,37 +4046,37 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1388</v>
+        <v>798.51</v>
       </c>
       <c r="O40">
-        <v>5042</v>
+        <v>1511.712</v>
       </c>
       <c r="P40">
-        <v>3337</v>
+        <v>508.351</v>
       </c>
       <c r="Q40">
-        <v>111</v>
+        <v>-160.41200000000001</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>2152</v>
+        <v>2220.2159999999999</v>
       </c>
       <c r="U40">
-        <v>1603</v>
+        <v>388.05700000000002</v>
       </c>
       <c r="V40">
-        <v>232</v>
+        <v>173.09299999999999</v>
       </c>
       <c r="W40">
-        <v>-86</v>
+        <v>-40.552999999999997</v>
       </c>
       <c r="X40">
-        <v>-91</v>
+        <v>-279.85899999999998</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -3965,42 +4085,42 @@
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>114</v>
+        <v>129.077</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>240</v>
+        <v>150.405</v>
       </c>
       <c r="D41">
-        <v>3018</v>
+        <v>1899.412</v>
       </c>
       <c r="E41">
-        <v>1485</v>
+        <v>784.92200000000003</v>
       </c>
       <c r="F41">
-        <v>1074</v>
+        <v>789.72400000000005</v>
       </c>
       <c r="G41">
-        <v>4273</v>
+        <v>2147.5569999999998</v>
       </c>
       <c r="H41">
-        <v>6583</v>
+        <v>3789.2370000000001</v>
       </c>
       <c r="I41">
-        <v>836</v>
+        <v>402.56799999999998</v>
       </c>
       <c r="J41">
-        <v>2388</v>
+        <v>427.495</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>41.877000000000002</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,37 +4129,37 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1441</v>
+        <v>895.26</v>
       </c>
       <c r="O41">
-        <v>4208</v>
+        <v>1640.7080000000001</v>
       </c>
       <c r="P41">
-        <v>2400</v>
+        <v>505.14699999999999</v>
       </c>
       <c r="Q41">
-        <v>-744</v>
+        <v>-101.54900000000001</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>2375</v>
+        <v>2148.529</v>
       </c>
       <c r="U41">
-        <v>859</v>
+        <v>286.50799999999998</v>
       </c>
       <c r="V41">
-        <v>311</v>
+        <v>205.68700000000001</v>
       </c>
       <c r="W41">
-        <v>0</v>
+        <v>-39.5</v>
       </c>
       <c r="X41">
-        <v>-1011</v>
+        <v>-262.54000000000002</v>
       </c>
       <c r="Y41">
         <v>0</v>
@@ -4048,89 +4168,3409 @@
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>240</v>
+        <v>150.405</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>132.21</v>
+      </c>
+      <c r="D42">
+        <v>1826.6959999999999</v>
+      </c>
+      <c r="E42">
+        <v>762.89499999999998</v>
+      </c>
+      <c r="F42">
+        <v>763.13199999999995</v>
+      </c>
+      <c r="G42">
+        <v>2238.0709999999999</v>
+      </c>
+      <c r="H42">
+        <v>3904.377</v>
+      </c>
+      <c r="I42">
+        <v>344.29500000000002</v>
+      </c>
+      <c r="J42">
+        <v>420.44600000000003</v>
+      </c>
+      <c r="K42">
+        <v>42.768999999999998</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>869.303</v>
+      </c>
+      <c r="O42">
+        <v>1616.7070000000001</v>
+      </c>
+      <c r="P42">
+        <v>494.274</v>
+      </c>
+      <c r="Q42">
+        <v>26.946000000000002</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>17000</v>
+      </c>
+      <c r="T42">
+        <v>2287.67</v>
+      </c>
+      <c r="U42">
+        <v>313.45400000000001</v>
+      </c>
+      <c r="V42">
+        <v>104.474</v>
+      </c>
+      <c r="W42">
+        <v>-36.484000000000002</v>
+      </c>
+      <c r="X42">
+        <v>-28.971</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>132.21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>157.93299999999999</v>
+      </c>
+      <c r="D43">
+        <v>1883.6120000000001</v>
+      </c>
+      <c r="E43">
+        <v>809.85</v>
+      </c>
+      <c r="F43">
+        <v>829.61400000000003</v>
+      </c>
+      <c r="G43">
+        <v>2261.7020000000002</v>
+      </c>
+      <c r="H43">
+        <v>3933.424</v>
+      </c>
+      <c r="I43">
+        <v>361.99700000000001</v>
+      </c>
+      <c r="J43">
+        <v>413.339</v>
+      </c>
+      <c r="K43">
+        <v>45.767000000000003</v>
+      </c>
+      <c r="L43">
+        <v>-77.878</v>
+      </c>
+      <c r="M43">
+        <v>-7.3730000000000002</v>
+      </c>
+      <c r="N43">
+        <v>781.96699999999998</v>
+      </c>
+      <c r="O43">
+        <v>1534.19</v>
+      </c>
+      <c r="P43">
+        <v>489.9</v>
+      </c>
+      <c r="Q43">
+        <v>21.242000000000001</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>2399.2339999999999</v>
+      </c>
+      <c r="U43">
+        <v>334.69600000000003</v>
+      </c>
+      <c r="V43">
+        <v>118.39100000000001</v>
+      </c>
+      <c r="W43">
+        <v>-38.334000000000003</v>
+      </c>
+      <c r="X43">
+        <v>-73.430000000000007</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>157.93299999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>169.88499999999999</v>
+      </c>
+      <c r="D44">
+        <v>2003.0219999999999</v>
+      </c>
+      <c r="E44">
+        <v>870.43600000000004</v>
+      </c>
+      <c r="F44">
+        <v>862.39400000000001</v>
+      </c>
+      <c r="G44">
+        <v>2506.2579999999998</v>
+      </c>
+      <c r="H44">
+        <v>4200.4350000000004</v>
+      </c>
+      <c r="I44">
+        <v>394.08600000000001</v>
+      </c>
+      <c r="J44">
+        <v>200.46899999999999</v>
+      </c>
+      <c r="K44">
+        <v>49.22</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1078.7729999999999</v>
+      </c>
+      <c r="O44">
+        <v>1625.634</v>
+      </c>
+      <c r="P44">
+        <v>486.22699999999998</v>
+      </c>
+      <c r="Q44">
+        <v>131.00899999999999</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>2574.8009999999999</v>
+      </c>
+      <c r="U44">
+        <v>465.70499999999998</v>
+      </c>
+      <c r="V44">
+        <v>191.078</v>
+      </c>
+      <c r="W44">
+        <v>-47.448999999999998</v>
+      </c>
+      <c r="X44">
+        <v>-12.022</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>169.88499999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>182.12100000000001</v>
+      </c>
+      <c r="D45">
+        <v>2114.6469999999999</v>
+      </c>
+      <c r="E45">
+        <v>944.98400000000004</v>
+      </c>
+      <c r="F45">
+        <v>912.99900000000002</v>
+      </c>
+      <c r="G45">
+        <v>2577.694</v>
+      </c>
+      <c r="H45">
+        <v>4550.6450000000004</v>
+      </c>
+      <c r="I45">
+        <v>447.68700000000001</v>
+      </c>
+      <c r="J45">
+        <v>163.416</v>
+      </c>
+      <c r="K45">
+        <v>213.58</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1374.6079999999999</v>
+      </c>
+      <c r="O45">
+        <v>1919.14</v>
+      </c>
+      <c r="P45">
+        <v>607.42600000000004</v>
+      </c>
+      <c r="Q45">
+        <v>-105.042</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>2631.5050000000001</v>
+      </c>
+      <c r="U45">
+        <v>360.66300000000001</v>
+      </c>
+      <c r="V45">
+        <v>250.50200000000001</v>
+      </c>
+      <c r="W45">
+        <v>-46.936</v>
+      </c>
+      <c r="X45">
+        <v>53.231999999999999</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>182.12100000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>148.48400000000001</v>
+      </c>
+      <c r="D46">
+        <v>2076.904</v>
+      </c>
+      <c r="E46">
+        <v>888.697</v>
+      </c>
+      <c r="F46">
+        <v>905.78499999999997</v>
+      </c>
+      <c r="G46">
+        <v>2694.9</v>
+      </c>
+      <c r="H46">
+        <v>4716.0619999999999</v>
+      </c>
+      <c r="I46">
+        <v>477.64800000000002</v>
+      </c>
+      <c r="J46">
+        <v>176.62899999999999</v>
+      </c>
+      <c r="K46">
+        <v>119.97</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1387.925</v>
+      </c>
+      <c r="O46">
+        <v>1991.7829999999999</v>
+      </c>
+      <c r="P46">
+        <v>518.13800000000003</v>
+      </c>
+      <c r="Q46">
+        <v>-25.172000000000001</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>20000</v>
+      </c>
+      <c r="T46">
+        <v>2724.279</v>
+      </c>
+      <c r="U46">
+        <v>335.49099999999999</v>
+      </c>
+      <c r="V46">
+        <v>186.137</v>
+      </c>
+      <c r="W46">
+        <v>-46.354999999999997</v>
+      </c>
+      <c r="X46">
+        <v>-145.226</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>148.48400000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>187.51599999999999</v>
+      </c>
+      <c r="D47">
+        <v>2193.4450000000002</v>
+      </c>
+      <c r="E47">
+        <v>977.44200000000001</v>
+      </c>
+      <c r="F47">
+        <v>974.33199999999999</v>
+      </c>
+      <c r="G47">
+        <v>2706.1979999999999</v>
+      </c>
+      <c r="H47">
+        <v>4751.21</v>
+      </c>
+      <c r="I47">
+        <v>447.65499999999997</v>
+      </c>
+      <c r="J47">
+        <v>193.96199999999999</v>
+      </c>
+      <c r="K47">
+        <v>117.637</v>
+      </c>
+      <c r="L47">
+        <v>-33.353999999999999</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>1230.866</v>
+      </c>
+      <c r="O47">
+        <v>1877.6610000000001</v>
+      </c>
+      <c r="P47">
+        <v>526.1</v>
+      </c>
+      <c r="Q47">
+        <v>3.2639999999999998</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>2873.549</v>
+      </c>
+      <c r="U47">
+        <v>338.755</v>
+      </c>
+      <c r="V47">
+        <v>106.238</v>
+      </c>
+      <c r="W47">
+        <v>-47.017000000000003</v>
+      </c>
+      <c r="X47">
+        <v>-55.445</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>187.51599999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>190.70400000000001</v>
+      </c>
+      <c r="D48">
+        <v>2249.2750000000001</v>
+      </c>
+      <c r="E48">
+        <v>1015.159</v>
+      </c>
+      <c r="F48">
+        <v>978.34299999999996</v>
+      </c>
+      <c r="G48">
+        <v>2698.7310000000002</v>
+      </c>
+      <c r="H48">
+        <v>4761.308</v>
+      </c>
+      <c r="I48">
+        <v>473.036</v>
+      </c>
+      <c r="J48">
+        <v>476.678</v>
+      </c>
+      <c r="K48">
+        <v>72.486000000000004</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>962.91200000000003</v>
+      </c>
+      <c r="O48">
+        <v>1867.1559999999999</v>
+      </c>
+      <c r="P48">
+        <v>551.72</v>
+      </c>
+      <c r="Q48">
+        <v>-89.009</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>2894.152</v>
+      </c>
+      <c r="U48">
+        <v>249.74600000000001</v>
+      </c>
+      <c r="V48">
+        <v>131.982</v>
+      </c>
+      <c r="W48">
+        <v>-58.344000000000001</v>
+      </c>
+      <c r="X48">
+        <v>-152.90799999999999</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>190.70400000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>155.39400000000001</v>
+      </c>
+      <c r="D49">
+        <v>2281.2049999999999</v>
+      </c>
+      <c r="E49">
+        <v>1022.1849999999999</v>
+      </c>
+      <c r="F49">
+        <v>993.96</v>
+      </c>
+      <c r="G49">
+        <v>2874.953</v>
+      </c>
+      <c r="H49">
+        <v>4983.7439999999997</v>
+      </c>
+      <c r="I49">
+        <v>439.59500000000003</v>
+      </c>
+      <c r="J49">
+        <v>483.57600000000002</v>
+      </c>
+      <c r="K49">
+        <v>75.998000000000005</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1083.201</v>
+      </c>
+      <c r="O49">
+        <v>2015.3810000000001</v>
+      </c>
+      <c r="P49">
+        <v>565.96600000000001</v>
+      </c>
+      <c r="Q49">
+        <v>171.05699999999999</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>2968.3629999999998</v>
+      </c>
+      <c r="U49">
+        <v>420.803</v>
+      </c>
+      <c r="V49">
+        <v>337.88900000000001</v>
+      </c>
+      <c r="W49">
+        <v>-56.637</v>
+      </c>
+      <c r="X49">
+        <v>-114.12</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>155.39400000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>156.267</v>
+      </c>
+      <c r="D50">
+        <v>2226.12</v>
+      </c>
+      <c r="E50">
+        <v>940.02</v>
+      </c>
+      <c r="F50">
+        <v>969.52499999999998</v>
+      </c>
+      <c r="G50">
+        <v>2900.64</v>
+      </c>
+      <c r="H50">
+        <v>5014.598</v>
+      </c>
+      <c r="I50">
+        <v>428.78199999999998</v>
+      </c>
+      <c r="J50">
+        <v>471.048</v>
+      </c>
+      <c r="K50">
+        <v>79.070999999999998</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1080.0029999999999</v>
+      </c>
+      <c r="O50">
+        <v>1897.232</v>
+      </c>
+      <c r="P50">
+        <v>568.64400000000001</v>
+      </c>
+      <c r="Q50">
+        <v>31.26</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>21100</v>
+      </c>
+      <c r="T50">
+        <v>3117.366</v>
+      </c>
+      <c r="U50">
+        <v>452.06299999999999</v>
+      </c>
+      <c r="V50">
+        <v>240.08600000000001</v>
+      </c>
+      <c r="W50">
+        <v>-55.415999999999997</v>
+      </c>
+      <c r="X50">
+        <v>-71.962999999999994</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>156.267</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>211.83799999999999</v>
+      </c>
+      <c r="D51">
+        <v>2280.4349999999999</v>
+      </c>
+      <c r="E51">
+        <v>1031.92</v>
+      </c>
+      <c r="F51">
+        <v>1031.7360000000001</v>
+      </c>
+      <c r="G51">
+        <v>2923.4279999999999</v>
+      </c>
+      <c r="H51">
+        <v>5013.7280000000001</v>
+      </c>
+      <c r="I51">
+        <v>431.84800000000001</v>
+      </c>
+      <c r="J51">
+        <v>458.084</v>
+      </c>
+      <c r="K51">
+        <v>73.602000000000004</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-43.749000000000002</v>
+      </c>
+      <c r="N51">
+        <v>989.42200000000003</v>
+      </c>
+      <c r="O51">
+        <v>1795.538</v>
+      </c>
+      <c r="P51">
+        <v>553.44299999999998</v>
+      </c>
+      <c r="Q51">
+        <v>33.453000000000003</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>3218.19</v>
+      </c>
+      <c r="U51">
+        <v>485.51600000000002</v>
+      </c>
+      <c r="V51">
+        <v>176.417</v>
+      </c>
+      <c r="W51">
+        <v>-56.545999999999999</v>
+      </c>
+      <c r="X51">
+        <v>-97.813999999999993</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>211.83799999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>217.66</v>
+      </c>
+      <c r="D52">
+        <v>2381.5610000000001</v>
+      </c>
+      <c r="E52">
+        <v>1075.5920000000001</v>
+      </c>
+      <c r="F52">
+        <v>1046.9839999999999</v>
+      </c>
+      <c r="G52">
+        <v>2962.1840000000002</v>
+      </c>
+      <c r="H52">
+        <v>5030.1350000000002</v>
+      </c>
+      <c r="I52">
+        <v>452.17899999999997</v>
+      </c>
+      <c r="J52">
+        <v>455.334</v>
+      </c>
+      <c r="K52">
+        <v>70.007000000000005</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>986.88499999999999</v>
+      </c>
+      <c r="O52">
+        <v>1787.94</v>
+      </c>
+      <c r="P52">
+        <v>550.84299999999996</v>
+      </c>
+      <c r="Q52">
+        <v>3.2250000000000001</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>3242.1950000000002</v>
+      </c>
+      <c r="U52">
+        <v>488.74099999999999</v>
+      </c>
+      <c r="V52">
+        <v>210.40600000000001</v>
+      </c>
+      <c r="W52">
+        <v>-67.003</v>
+      </c>
+      <c r="X52">
+        <v>-152.172</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>217.66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>210.78899999999999</v>
+      </c>
+      <c r="D53">
+        <v>2398.5300000000002</v>
+      </c>
+      <c r="E53">
+        <v>1082.1079999999999</v>
+      </c>
+      <c r="F53">
+        <v>1051.366</v>
+      </c>
+      <c r="G53">
+        <v>3049.0970000000002</v>
+      </c>
+      <c r="H53">
+        <v>5251.549</v>
+      </c>
+      <c r="I53">
+        <v>435.16500000000002</v>
+      </c>
+      <c r="J53">
+        <v>451.14499999999998</v>
+      </c>
+      <c r="K53">
+        <v>73.022999999999996</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1074.492</v>
+      </c>
+      <c r="O53">
+        <v>1882.41</v>
+      </c>
+      <c r="P53">
+        <v>551.66899999999998</v>
+      </c>
+      <c r="Q53">
+        <v>51.253999999999998</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>3369.1390000000001</v>
+      </c>
+      <c r="U53">
+        <v>539.995</v>
+      </c>
+      <c r="V53">
+        <v>353.60500000000002</v>
+      </c>
+      <c r="W53">
+        <v>-65.138999999999996</v>
+      </c>
+      <c r="X53">
+        <v>-118.50700000000001</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>210.78899999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>156.749</v>
+      </c>
+      <c r="D54">
+        <v>2377.232</v>
+      </c>
+      <c r="E54">
+        <v>1101.6559999999999</v>
+      </c>
+      <c r="F54">
+        <v>1006.397</v>
+      </c>
+      <c r="G54">
+        <v>3044.2849999999999</v>
+      </c>
+      <c r="H54">
+        <v>5266.3280000000004</v>
+      </c>
+      <c r="I54">
+        <v>510.63400000000001</v>
+      </c>
+      <c r="J54">
+        <v>448.51299999999998</v>
+      </c>
+      <c r="K54">
+        <v>66.856999999999999</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1195.79</v>
+      </c>
+      <c r="O54">
+        <v>1939.492</v>
+      </c>
+      <c r="P54">
+        <v>545.79899999999998</v>
+      </c>
+      <c r="Q54">
+        <v>-109.351</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>22500</v>
+      </c>
+      <c r="T54">
+        <v>3326.8359999999998</v>
+      </c>
+      <c r="U54">
+        <v>430.64400000000001</v>
+      </c>
+      <c r="V54">
+        <v>246.07</v>
+      </c>
+      <c r="W54">
+        <v>-63.771000000000001</v>
+      </c>
+      <c r="X54">
+        <v>-222.376</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>156.749</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>216.65299999999999</v>
+      </c>
+      <c r="D55">
+        <v>2385.627</v>
+      </c>
+      <c r="E55">
+        <v>1159.556</v>
+      </c>
+      <c r="F55">
+        <v>1075.971</v>
+      </c>
+      <c r="G55">
+        <v>2995.6640000000002</v>
+      </c>
+      <c r="H55">
+        <v>5234.2290000000003</v>
+      </c>
+      <c r="I55">
+        <v>493.91500000000002</v>
+      </c>
+      <c r="J55">
+        <v>441.06799999999998</v>
+      </c>
+      <c r="K55">
+        <v>104.167</v>
+      </c>
+      <c r="L55">
+        <v>-28.312999999999999</v>
+      </c>
+      <c r="M55">
+        <v>-5.8070000000000004</v>
+      </c>
+      <c r="N55">
+        <v>1166.1369999999999</v>
+      </c>
+      <c r="O55">
+        <v>1905.6379999999999</v>
+      </c>
+      <c r="P55">
+        <v>577.70000000000005</v>
+      </c>
+      <c r="Q55">
+        <v>-55.08</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>3328.5909999999999</v>
+      </c>
+      <c r="U55">
+        <v>375.56400000000002</v>
+      </c>
+      <c r="V55">
+        <v>167.518</v>
+      </c>
+      <c r="W55">
+        <v>-64.682000000000002</v>
+      </c>
+      <c r="X55">
+        <v>-165.55699999999999</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>216.65299999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>205.91499999999999</v>
+      </c>
+      <c r="D56">
+        <v>2506.1039999999998</v>
+      </c>
+      <c r="E56">
+        <v>1177.5429999999999</v>
+      </c>
+      <c r="F56">
+        <v>1080.6859999999999</v>
+      </c>
+      <c r="G56">
+        <v>3030.5529999999999</v>
+      </c>
+      <c r="H56">
+        <v>5311.3119999999999</v>
+      </c>
+      <c r="I56">
+        <v>513.82899999999995</v>
+      </c>
+      <c r="J56">
+        <v>435.48500000000001</v>
+      </c>
+      <c r="K56">
+        <v>101.617</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1126.453</v>
+      </c>
+      <c r="O56">
+        <v>1863.288</v>
+      </c>
+      <c r="P56">
+        <v>570.45399999999995</v>
+      </c>
+      <c r="Q56">
+        <v>-43.856999999999999</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>3448.0239999999999</v>
+      </c>
+      <c r="U56">
+        <v>331.70699999999999</v>
+      </c>
+      <c r="V56">
+        <v>160.94800000000001</v>
+      </c>
+      <c r="W56">
+        <v>-76.203000000000003</v>
+      </c>
+      <c r="X56">
+        <v>-131.67099999999999</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>205.91499999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>230.322</v>
+      </c>
+      <c r="D57">
+        <v>2562.2629999999999</v>
+      </c>
+      <c r="E57">
+        <v>1234.884</v>
+      </c>
+      <c r="F57">
+        <v>1102.7840000000001</v>
+      </c>
+      <c r="G57">
+        <v>3043.663</v>
+      </c>
+      <c r="H57">
+        <v>5326.4160000000002</v>
+      </c>
+      <c r="I57">
+        <v>498.24400000000003</v>
+      </c>
+      <c r="J57">
+        <v>388.19099999999997</v>
+      </c>
+      <c r="K57">
+        <v>48.390999999999998</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1156.7829999999999</v>
+      </c>
+      <c r="O57">
+        <v>1850.01</v>
+      </c>
+      <c r="P57">
+        <v>460.19200000000001</v>
+      </c>
+      <c r="Q57">
+        <v>-11.973000000000001</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>3476.4059999999999</v>
+      </c>
+      <c r="U57">
+        <v>319.73399999999998</v>
+      </c>
+      <c r="V57">
+        <v>334.36700000000002</v>
+      </c>
+      <c r="W57">
+        <v>-74.38</v>
+      </c>
+      <c r="X57">
+        <v>-233.45400000000001</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>230.322</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>148.839</v>
+      </c>
+      <c r="D58">
+        <v>2510.9589999999998</v>
+      </c>
+      <c r="E58">
+        <v>1172.924</v>
+      </c>
+      <c r="F58">
+        <v>1054.8009999999999</v>
+      </c>
+      <c r="G58">
+        <v>2967.549</v>
+      </c>
+      <c r="H58">
+        <v>5283.049</v>
+      </c>
+      <c r="I58">
+        <v>554.08799999999997</v>
+      </c>
+      <c r="J58">
+        <v>405.33300000000003</v>
+      </c>
+      <c r="K58">
+        <v>56.896000000000001</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1261.7159999999999</v>
+      </c>
+      <c r="O58">
+        <v>1998.9480000000001</v>
+      </c>
+      <c r="P58">
+        <v>485.63299999999998</v>
+      </c>
+      <c r="Q58">
+        <v>-93.09</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>22300</v>
+      </c>
+      <c r="T58">
+        <v>3284.1010000000001</v>
+      </c>
+      <c r="U58">
+        <v>226.64400000000001</v>
+      </c>
+      <c r="V58">
+        <v>296.98099999999999</v>
+      </c>
+      <c r="W58">
+        <v>-72.444000000000003</v>
+      </c>
+      <c r="X58">
+        <v>-227.441</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>148.839</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>211.01499999999999</v>
+      </c>
+      <c r="D59">
+        <v>2439.6610000000001</v>
+      </c>
+      <c r="E59">
+        <v>1198.153</v>
+      </c>
+      <c r="F59">
+        <v>1093.7429999999999</v>
+      </c>
+      <c r="G59">
+        <v>2946.6410000000001</v>
+      </c>
+      <c r="H59">
+        <v>5210.9719999999998</v>
+      </c>
+      <c r="I59">
+        <v>513.55100000000004</v>
+      </c>
+      <c r="J59">
+        <v>373.07</v>
+      </c>
+      <c r="K59">
+        <v>231.53299999999999</v>
+      </c>
+      <c r="L59">
+        <v>-28.332999999999998</v>
+      </c>
+      <c r="M59">
+        <v>-1.86</v>
+      </c>
+      <c r="N59">
+        <v>1297.5450000000001</v>
+      </c>
+      <c r="O59">
+        <v>2000.703</v>
+      </c>
+      <c r="P59">
+        <v>630.01900000000001</v>
+      </c>
+      <c r="Q59">
+        <v>16.783000000000001</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>3210.2689999999998</v>
+      </c>
+      <c r="U59">
+        <v>243.42699999999999</v>
+      </c>
+      <c r="V59">
+        <v>156.209</v>
+      </c>
+      <c r="W59">
+        <v>-73.393000000000001</v>
+      </c>
+      <c r="X59">
+        <v>-39.996000000000002</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>211.01499999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>220.548</v>
+      </c>
+      <c r="D60">
+        <v>2522.5650000000001</v>
+      </c>
+      <c r="E60">
+        <v>1197.856</v>
+      </c>
+      <c r="F60">
+        <v>1073.432</v>
+      </c>
+      <c r="G60">
+        <v>3523.7460000000001</v>
+      </c>
+      <c r="H60">
+        <v>5826.9089999999997</v>
+      </c>
+      <c r="I60">
+        <v>498.416</v>
+      </c>
+      <c r="J60">
+        <v>1349.6420000000001</v>
+      </c>
+      <c r="K60">
+        <v>30.495000000000001</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1047.1020000000001</v>
+      </c>
+      <c r="O60">
+        <v>2727.471</v>
+      </c>
+      <c r="P60">
+        <v>1406.412</v>
+      </c>
+      <c r="Q60">
+        <v>576.35900000000004</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>3099.4380000000001</v>
+      </c>
+      <c r="U60">
+        <v>819.78599999999994</v>
+      </c>
+      <c r="V60">
+        <v>213.29599999999999</v>
+      </c>
+      <c r="W60">
+        <v>-80.513000000000005</v>
+      </c>
+      <c r="X60">
+        <v>441.62599999999998</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-10.19</v>
+      </c>
+      <c r="AA60">
+        <v>220.548</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>192.20099999999999</v>
+      </c>
+      <c r="D61">
+        <v>2532.9</v>
+      </c>
+      <c r="E61">
+        <v>1291.365</v>
+      </c>
+      <c r="F61">
+        <v>1061.8789999999999</v>
+      </c>
+      <c r="G61">
+        <v>3104.6860000000001</v>
+      </c>
+      <c r="H61">
+        <v>5807.1530000000002</v>
+      </c>
+      <c r="I61">
+        <v>582.47699999999998</v>
+      </c>
+      <c r="J61">
+        <v>1450.624</v>
+      </c>
+      <c r="K61">
+        <v>211.68600000000001</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1549.1969999999999</v>
+      </c>
+      <c r="O61">
+        <v>3361.1010000000001</v>
+      </c>
+      <c r="P61">
+        <v>1813.211</v>
+      </c>
+      <c r="Q61">
+        <v>-561.63499999999999</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>2446.0520000000001</v>
+      </c>
+      <c r="U61">
+        <v>258.15100000000001</v>
+      </c>
+      <c r="V61">
+        <v>366.42500000000001</v>
+      </c>
+      <c r="W61">
+        <v>-77.042000000000002</v>
+      </c>
+      <c r="X61">
+        <v>-365.03</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-5.4969999999999999</v>
+      </c>
+      <c r="AA61">
+        <v>192.20099999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>145.232</v>
+      </c>
+      <c r="D62">
+        <v>2478.2579999999998</v>
+      </c>
+      <c r="E62">
+        <v>1209.6410000000001</v>
+      </c>
+      <c r="F62">
+        <v>1002.375</v>
+      </c>
+      <c r="G62">
+        <v>3048.6419999999998</v>
+      </c>
+      <c r="H62">
+        <v>5857.7550000000001</v>
+      </c>
+      <c r="I62">
+        <v>583.47400000000005</v>
+      </c>
+      <c r="J62">
+        <v>1388.414</v>
+      </c>
+      <c r="K62">
+        <v>353.072</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1788.5340000000001</v>
+      </c>
+      <c r="O62">
+        <v>3505.0410000000002</v>
+      </c>
+      <c r="P62">
+        <v>1988.8320000000001</v>
+      </c>
+      <c r="Q62">
+        <v>31.984999999999999</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>24400</v>
+      </c>
+      <c r="T62">
+        <v>2352.7139999999999</v>
+      </c>
+      <c r="U62">
+        <v>290.13600000000002</v>
+      </c>
+      <c r="V62">
+        <v>253.97399999999999</v>
+      </c>
+      <c r="W62">
+        <v>-71.248000000000005</v>
+      </c>
+      <c r="X62">
+        <v>-99.150999999999996</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-4.6950000000000003</v>
+      </c>
+      <c r="AA62">
+        <v>145.232</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>186.71299999999999</v>
+      </c>
+      <c r="D63">
+        <v>2506.538</v>
+      </c>
+      <c r="E63">
+        <v>1304.56</v>
+      </c>
+      <c r="F63">
+        <v>1045.0530000000001</v>
+      </c>
+      <c r="G63">
+        <v>3138.9609999999998</v>
+      </c>
+      <c r="H63">
+        <v>5964.8389999999999</v>
+      </c>
+      <c r="I63">
+        <v>620.41</v>
+      </c>
+      <c r="J63">
+        <v>1387.124</v>
+      </c>
+      <c r="K63">
+        <v>569.36699999999996</v>
+      </c>
+      <c r="L63">
+        <v>-11.06</v>
+      </c>
+      <c r="M63">
+        <v>-125.014</v>
+      </c>
+      <c r="N63">
+        <v>1880.44</v>
+      </c>
+      <c r="O63">
+        <v>3600.6390000000001</v>
+      </c>
+      <c r="P63">
+        <v>2093.3249999999998</v>
+      </c>
+      <c r="Q63">
+        <v>-10.23</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>2364.1999999999998</v>
+      </c>
+      <c r="U63">
+        <v>279.90600000000001</v>
+      </c>
+      <c r="V63">
+        <v>160.637</v>
+      </c>
+      <c r="W63">
+        <v>-72.632000000000005</v>
+      </c>
+      <c r="X63">
+        <v>-138.24799999999999</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-7.1989999999999998</v>
+      </c>
+      <c r="AA63">
+        <v>186.71299999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>172.67599999999999</v>
+      </c>
+      <c r="D64">
+        <v>2563.6680000000001</v>
+      </c>
+      <c r="E64">
+        <v>1310.3820000000001</v>
+      </c>
+      <c r="F64">
+        <v>1049.9059999999999</v>
+      </c>
+      <c r="G64">
+        <v>3190.2620000000002</v>
+      </c>
+      <c r="H64">
+        <v>5964.8040000000001</v>
+      </c>
+      <c r="I64">
+        <v>628.65899999999999</v>
+      </c>
+      <c r="J64">
+        <v>1765.809</v>
+      </c>
+      <c r="K64">
+        <v>372.85399999999998</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1641.3440000000001</v>
+      </c>
+      <c r="O64">
+        <v>3722.23</v>
+      </c>
+      <c r="P64">
+        <v>2271.5830000000001</v>
+      </c>
+      <c r="Q64">
+        <v>36.091000000000001</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>2242.5740000000001</v>
+      </c>
+      <c r="U64">
+        <v>315.99700000000001</v>
+      </c>
+      <c r="V64">
+        <v>182.45599999999999</v>
+      </c>
+      <c r="W64">
+        <v>-74.847999999999999</v>
+      </c>
+      <c r="X64">
+        <v>-120.236</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-3.141</v>
+      </c>
+      <c r="AA64">
+        <v>172.67599999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>185.87299999999999</v>
+      </c>
+      <c r="D65">
+        <v>2596.288</v>
+      </c>
+      <c r="E65">
+        <v>1326.3589999999999</v>
+      </c>
+      <c r="F65">
+        <v>1040.3</v>
+      </c>
+      <c r="G65">
+        <v>3129.192</v>
+      </c>
+      <c r="H65">
+        <v>5885.509</v>
+      </c>
+      <c r="I65">
+        <v>623.745</v>
+      </c>
+      <c r="J65">
+        <v>1874.1320000000001</v>
+      </c>
+      <c r="K65">
+        <v>387.68400000000003</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1536.3109999999999</v>
+      </c>
+      <c r="O65">
+        <v>3724.473</v>
+      </c>
+      <c r="P65">
+        <v>2278.3040000000001</v>
+      </c>
+      <c r="Q65">
+        <v>-30.015999999999998</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>2161.0360000000001</v>
+      </c>
+      <c r="U65">
+        <v>285.98099999999999</v>
+      </c>
+      <c r="V65">
+        <v>345.83100000000002</v>
+      </c>
+      <c r="W65">
+        <v>-73.650999999999996</v>
+      </c>
+      <c r="X65">
+        <v>-259.95800000000003</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-8.9589999999999996</v>
+      </c>
+      <c r="AA65">
+        <v>185.87299999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>60.665999999999997</v>
+      </c>
+      <c r="D66">
+        <v>2470.71</v>
+      </c>
+      <c r="E66">
+        <v>1223.096</v>
+      </c>
+      <c r="F66">
+        <v>979.84500000000003</v>
+      </c>
+      <c r="G66">
+        <v>3020.2289999999998</v>
+      </c>
+      <c r="H66">
+        <v>5694.3069999999998</v>
+      </c>
+      <c r="I66">
+        <v>650.09199999999998</v>
+      </c>
+      <c r="J66">
+        <v>1840.9459999999999</v>
+      </c>
+      <c r="K66">
+        <v>386.14</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1628.9369999999999</v>
+      </c>
+      <c r="O66">
+        <v>3788.5390000000002</v>
+      </c>
+      <c r="P66">
+        <v>2247.0520000000001</v>
+      </c>
+      <c r="Q66">
+        <v>-11.835000000000001</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>24400</v>
+      </c>
+      <c r="T66">
+        <v>1905.768</v>
+      </c>
+      <c r="U66">
+        <v>274.14600000000002</v>
+      </c>
+      <c r="V66">
+        <v>335.15899999999999</v>
+      </c>
+      <c r="W66">
+        <v>-72.650000000000006</v>
+      </c>
+      <c r="X66">
+        <v>-257.197</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-14.804</v>
+      </c>
+      <c r="AA66">
+        <v>60.665999999999997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>174.744</v>
+      </c>
+      <c r="D67">
+        <v>2541.1289999999999</v>
+      </c>
+      <c r="E67">
+        <v>1325.2180000000001</v>
+      </c>
+      <c r="F67">
+        <v>1019.192</v>
+      </c>
+      <c r="G67">
+        <v>3096.183</v>
+      </c>
+      <c r="H67">
+        <v>5782.549</v>
+      </c>
+      <c r="I67">
+        <v>672.471</v>
+      </c>
+      <c r="J67">
+        <v>1847.7170000000001</v>
+      </c>
+      <c r="K67">
+        <v>421.55500000000001</v>
+      </c>
+      <c r="L67">
+        <v>-9.1669999999999998</v>
+      </c>
+      <c r="M67">
+        <v>-6.2350000000000003</v>
+      </c>
+      <c r="N67">
+        <v>1688.43</v>
+      </c>
+      <c r="O67">
+        <v>3866.0259999999998</v>
+      </c>
+      <c r="P67">
+        <v>2289.3409999999999</v>
+      </c>
+      <c r="Q67">
+        <v>-35.344999999999999</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>1916.5229999999999</v>
+      </c>
+      <c r="U67">
+        <v>238.80099999999999</v>
+      </c>
+      <c r="V67">
+        <v>180.946</v>
+      </c>
+      <c r="W67">
+        <v>-72.117999999999995</v>
+      </c>
+      <c r="X67">
+        <v>-183.2</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-7.0670000000000002</v>
+      </c>
+      <c r="AA67">
+        <v>174.744</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>97.921000000000006</v>
+      </c>
+      <c r="D68">
+        <v>2615.2689999999998</v>
+      </c>
+      <c r="E68">
+        <v>1369.626</v>
+      </c>
+      <c r="F68">
+        <v>1042.53</v>
+      </c>
+      <c r="G68">
+        <v>3186.3470000000002</v>
+      </c>
+      <c r="H68">
+        <v>5861.8810000000003</v>
+      </c>
+      <c r="I68">
+        <v>692.68899999999996</v>
+      </c>
+      <c r="J68">
+        <v>2267.8719999999998</v>
+      </c>
+      <c r="K68">
+        <v>129.066</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1410.578</v>
+      </c>
+      <c r="O68">
+        <v>4013.6849999999999</v>
+      </c>
+      <c r="P68">
+        <v>2426.17</v>
+      </c>
+      <c r="Q68">
+        <v>36.264000000000003</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>1848.1959999999999</v>
+      </c>
+      <c r="U68">
+        <v>275.065</v>
+      </c>
+      <c r="V68">
+        <v>191.232</v>
+      </c>
+      <c r="W68">
+        <v>-79.519000000000005</v>
+      </c>
+      <c r="X68">
+        <v>-121.28400000000001</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-6.2329999999999997</v>
+      </c>
+      <c r="AA68">
+        <v>97.921000000000006</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>162.006</v>
+      </c>
+      <c r="D69">
+        <v>2635.9989999999998</v>
+      </c>
+      <c r="E69">
+        <v>1373.3230000000001</v>
+      </c>
+      <c r="F69">
+        <v>1017.6609999999999</v>
+      </c>
+      <c r="G69">
+        <v>3175.06</v>
+      </c>
+      <c r="H69">
+        <v>5825.06</v>
+      </c>
+      <c r="I69">
+        <v>713.45299999999997</v>
+      </c>
+      <c r="J69">
+        <v>2270.0010000000002</v>
+      </c>
+      <c r="K69">
+        <v>11.348000000000001</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1392.5229999999999</v>
+      </c>
+      <c r="O69">
+        <v>3923.9749999999999</v>
+      </c>
+      <c r="P69">
+        <v>2323.1849999999999</v>
+      </c>
+      <c r="Q69">
+        <v>9.51</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>1901.085</v>
+      </c>
+      <c r="U69">
+        <v>284.57499999999999</v>
+      </c>
+      <c r="V69">
+        <v>348.7</v>
+      </c>
+      <c r="W69">
+        <v>-73.867000000000004</v>
+      </c>
+      <c r="X69">
+        <v>-314.608</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-9.1300000000000008</v>
+      </c>
+      <c r="AA69">
+        <v>162.006</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>151.32900000000001</v>
+      </c>
+      <c r="D70">
+        <v>2632.6030000000001</v>
+      </c>
+      <c r="E70">
+        <v>1325</v>
+      </c>
+      <c r="F70">
+        <v>1031.617</v>
+      </c>
+      <c r="G70">
+        <v>3206</v>
+      </c>
+      <c r="H70">
+        <v>5804</v>
+      </c>
+      <c r="I70">
+        <v>731</v>
+      </c>
+      <c r="J70">
+        <v>2248</v>
+      </c>
+      <c r="K70">
+        <v>56</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1507</v>
+      </c>
+      <c r="O70">
+        <v>3976</v>
+      </c>
+      <c r="P70">
+        <v>2343</v>
+      </c>
+      <c r="Q70">
+        <v>42.570999999999998</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>24400</v>
+      </c>
+      <c r="T70">
+        <v>1828</v>
+      </c>
+      <c r="U70">
+        <v>327</v>
+      </c>
+      <c r="V70">
+        <v>336.12200000000001</v>
+      </c>
+      <c r="W70">
+        <v>-67.495999999999995</v>
+      </c>
+      <c r="X70">
+        <v>-247.90799999999999</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-12.57</v>
+      </c>
+      <c r="AA70">
+        <v>151.32900000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>232</v>
+      </c>
+      <c r="D71">
+        <v>2766</v>
+      </c>
+      <c r="E71">
+        <v>1428.2329999999999</v>
+      </c>
+      <c r="F71">
+        <v>1092</v>
+      </c>
+      <c r="G71">
+        <v>3307.1619999999998</v>
+      </c>
+      <c r="H71">
+        <v>5902.8109999999997</v>
+      </c>
+      <c r="I71">
+        <v>748.37199999999996</v>
+      </c>
+      <c r="J71">
+        <v>2244.4059999999999</v>
+      </c>
+      <c r="K71">
+        <v>137.643</v>
+      </c>
+      <c r="L71">
+        <v>-20</v>
+      </c>
+      <c r="M71">
+        <v>-25</v>
+      </c>
+      <c r="N71">
+        <v>1504.3320000000001</v>
+      </c>
+      <c r="O71">
+        <v>3976.9050000000002</v>
+      </c>
+      <c r="P71">
+        <v>2412.328</v>
+      </c>
+      <c r="Q71">
+        <v>-25</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>1925.9059999999999</v>
+      </c>
+      <c r="U71">
+        <v>302.01499999999999</v>
+      </c>
+      <c r="V71">
+        <v>147</v>
+      </c>
+      <c r="W71">
+        <v>-72</v>
+      </c>
+      <c r="X71">
+        <v>-146</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-8</v>
+      </c>
+      <c r="AA71">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>237</v>
+      </c>
+      <c r="D72">
+        <v>2861</v>
+      </c>
+      <c r="E72">
+        <v>1462.6030000000001</v>
+      </c>
+      <c r="F72">
+        <v>1112</v>
+      </c>
+      <c r="G72">
+        <v>3373.002</v>
+      </c>
+      <c r="H72">
+        <v>5904.5720000000001</v>
+      </c>
+      <c r="I72">
+        <v>735.26599999999996</v>
+      </c>
+      <c r="J72">
+        <v>2210.3580000000002</v>
+      </c>
+      <c r="K72">
+        <v>54.222000000000001</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1424.4949999999999</v>
+      </c>
+      <c r="O72">
+        <v>3854.3029999999999</v>
+      </c>
+      <c r="P72">
+        <v>2294.752</v>
+      </c>
+      <c r="Q72">
+        <v>11</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>2050.2689999999998</v>
+      </c>
+      <c r="U72">
+        <v>312.46100000000001</v>
+      </c>
+      <c r="V72">
+        <v>248</v>
+      </c>
+      <c r="W72">
+        <v>-83</v>
+      </c>
+      <c r="X72">
+        <v>-185</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-6</v>
+      </c>
+      <c r="AA72">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>104</v>
+      </c>
+      <c r="D73">
+        <v>2831</v>
+      </c>
+      <c r="E73">
+        <v>1481.3</v>
+      </c>
+      <c r="F73">
+        <v>1079</v>
+      </c>
+      <c r="G73">
+        <v>3583.3440000000001</v>
+      </c>
+      <c r="H73">
+        <v>5932.183</v>
+      </c>
+      <c r="I73">
+        <v>730.21500000000003</v>
+      </c>
+      <c r="J73">
+        <v>2148.3989999999999</v>
+      </c>
+      <c r="K73">
+        <v>49.429000000000002</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1467.3320000000001</v>
+      </c>
+      <c r="O73">
+        <v>3832.1289999999999</v>
+      </c>
+      <c r="P73">
+        <v>2234.8009999999999</v>
+      </c>
+      <c r="Q73">
+        <v>204</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>2100.0540000000001</v>
+      </c>
+      <c r="U73">
+        <v>516.85</v>
+      </c>
+      <c r="V73">
+        <v>348</v>
+      </c>
+      <c r="W73">
+        <v>-77</v>
+      </c>
+      <c r="X73">
+        <v>-106</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>2</v>
+      </c>
+      <c r="AA73">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>209</v>
+      </c>
+      <c r="D74">
+        <v>2763</v>
+      </c>
+      <c r="E74">
+        <v>1385</v>
+      </c>
+      <c r="F74">
+        <v>1065</v>
+      </c>
+      <c r="G74">
+        <v>3557</v>
+      </c>
+      <c r="H74">
+        <v>5873</v>
+      </c>
+      <c r="I74">
+        <v>678</v>
+      </c>
+      <c r="J74">
+        <v>2090</v>
+      </c>
+      <c r="K74">
+        <v>49</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1501</v>
+      </c>
+      <c r="O74">
+        <v>3780</v>
+      </c>
+      <c r="P74">
+        <v>2220</v>
+      </c>
+      <c r="Q74">
+        <v>21</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>23100</v>
+      </c>
+      <c r="T74">
+        <v>2093</v>
+      </c>
+      <c r="U74">
+        <v>538</v>
+      </c>
+      <c r="V74">
+        <v>314</v>
+      </c>
+      <c r="W74">
+        <v>-70</v>
+      </c>
+      <c r="X74">
+        <v>-233</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>-1</v>
+      </c>
+      <c r="AA74">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>253</v>
+      </c>
+      <c r="D75">
+        <v>2799</v>
+      </c>
+      <c r="E75">
+        <v>1485</v>
+      </c>
+      <c r="F75">
+        <v>1095</v>
+      </c>
+      <c r="G75">
+        <v>3508</v>
+      </c>
+      <c r="H75">
+        <v>6014</v>
+      </c>
+      <c r="I75">
+        <v>741</v>
+      </c>
+      <c r="J75">
+        <v>2077</v>
+      </c>
+      <c r="K75">
+        <v>52</v>
+      </c>
+      <c r="L75">
+        <v>-7</v>
+      </c>
+      <c r="M75">
+        <v>-14</v>
+      </c>
+      <c r="N75">
+        <v>1462</v>
+      </c>
+      <c r="O75">
+        <v>3862</v>
+      </c>
+      <c r="P75">
+        <v>2406</v>
+      </c>
+      <c r="Q75">
+        <v>-146</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>2152</v>
+      </c>
+      <c r="U75">
+        <v>392</v>
+      </c>
+      <c r="V75">
+        <v>127</v>
+      </c>
+      <c r="W75">
+        <v>-76</v>
+      </c>
+      <c r="X75">
+        <v>-221</v>
+      </c>
+      <c r="Y75">
+        <v>139</v>
+      </c>
+      <c r="Z75">
+        <v>2</v>
+      </c>
+      <c r="AA75">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>260</v>
+      </c>
+      <c r="D76">
+        <v>2893</v>
+      </c>
+      <c r="E76">
+        <v>1503</v>
+      </c>
+      <c r="F76">
+        <v>1121</v>
+      </c>
+      <c r="G76">
+        <v>3456</v>
+      </c>
+      <c r="H76">
+        <v>5992</v>
+      </c>
+      <c r="I76">
+        <v>780</v>
+      </c>
+      <c r="J76">
+        <v>2080</v>
+      </c>
+      <c r="K76">
+        <v>51</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1452</v>
+      </c>
+      <c r="O76">
+        <v>3878</v>
+      </c>
+      <c r="P76">
+        <v>2414</v>
+      </c>
+      <c r="Q76">
+        <v>-77</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>2114</v>
+      </c>
+      <c r="U76">
+        <v>315</v>
+      </c>
+      <c r="V76">
+        <v>323</v>
+      </c>
+      <c r="W76">
+        <v>-87</v>
+      </c>
+      <c r="X76">
+        <v>-365</v>
+      </c>
+      <c r="Y76">
+        <v>150</v>
+      </c>
+      <c r="Z76">
+        <v>-2</v>
+      </c>
+      <c r="AA76">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>233</v>
+      </c>
+      <c r="D77">
+        <v>2947</v>
+      </c>
+      <c r="E77">
+        <v>1495</v>
+      </c>
+      <c r="F77">
+        <v>1099</v>
+      </c>
+      <c r="G77">
+        <v>3396</v>
+      </c>
+      <c r="H77">
+        <v>5922</v>
+      </c>
+      <c r="I77">
+        <v>723</v>
+      </c>
+      <c r="J77">
+        <v>1918</v>
+      </c>
+      <c r="K77">
+        <v>51</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1572</v>
+      </c>
+      <c r="O77">
+        <v>3850</v>
+      </c>
+      <c r="P77">
+        <v>2401</v>
+      </c>
+      <c r="Q77">
+        <v>-29</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>2072</v>
+      </c>
+      <c r="U77">
+        <v>286</v>
+      </c>
+      <c r="V77">
+        <v>320</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>-289</v>
+      </c>
+      <c r="Y77">
+        <v>159</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>103</v>
+      </c>
+      <c r="D78">
+        <v>2847</v>
+      </c>
+      <c r="E78">
+        <v>1425</v>
+      </c>
+      <c r="F78">
+        <v>1081</v>
+      </c>
+      <c r="G78">
+        <v>3555</v>
+      </c>
+      <c r="H78">
+        <v>6005</v>
+      </c>
+      <c r="I78">
+        <v>719</v>
+      </c>
+      <c r="J78">
+        <v>1914</v>
+      </c>
+      <c r="K78">
+        <v>55</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>1678</v>
+      </c>
+      <c r="O78">
+        <v>3945</v>
+      </c>
+      <c r="P78">
+        <v>2215</v>
+      </c>
+      <c r="Q78">
+        <v>74</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>23800</v>
+      </c>
+      <c r="T78">
+        <v>2060</v>
+      </c>
+      <c r="U78">
+        <v>360</v>
+      </c>
+      <c r="V78">
+        <v>272</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>-148</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>173</v>
+      </c>
+      <c r="D79">
+        <v>3001</v>
+      </c>
+      <c r="E79">
+        <v>1613</v>
+      </c>
+      <c r="F79">
+        <v>1121</v>
+      </c>
+      <c r="G79">
+        <v>4914</v>
+      </c>
+      <c r="H79">
+        <v>7177</v>
+      </c>
+      <c r="I79">
+        <v>863</v>
+      </c>
+      <c r="J79">
+        <v>3303</v>
+      </c>
+      <c r="K79">
+        <v>17</v>
+      </c>
+      <c r="L79">
+        <v>-45</v>
+      </c>
+      <c r="M79">
+        <v>-345</v>
+      </c>
+      <c r="N79">
+        <v>1500</v>
+      </c>
+      <c r="O79">
+        <v>5147</v>
+      </c>
+      <c r="P79">
+        <v>3341</v>
+      </c>
+      <c r="Q79">
+        <v>1132</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>2030</v>
+      </c>
+      <c r="U79">
+        <v>1492</v>
+      </c>
+      <c r="V79">
+        <v>244</v>
+      </c>
+      <c r="W79">
+        <v>-78</v>
+      </c>
+      <c r="X79">
+        <v>955</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>114</v>
+      </c>
+      <c r="D80">
+        <v>2837</v>
+      </c>
+      <c r="E80">
+        <v>1460</v>
+      </c>
+      <c r="F80">
+        <v>1016</v>
+      </c>
+      <c r="G80">
+        <v>4918</v>
+      </c>
+      <c r="H80">
+        <v>7194</v>
+      </c>
+      <c r="I80">
+        <v>770</v>
+      </c>
+      <c r="J80">
+        <v>3301</v>
+      </c>
+      <c r="K80">
+        <v>15</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1388</v>
+      </c>
+      <c r="O80">
+        <v>5042</v>
+      </c>
+      <c r="P80">
+        <v>3337</v>
+      </c>
+      <c r="Q80">
+        <v>111</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>2152</v>
+      </c>
+      <c r="U80">
+        <v>1603</v>
+      </c>
+      <c r="V80">
+        <v>232</v>
+      </c>
+      <c r="W80">
+        <v>-86</v>
+      </c>
+      <c r="X80">
+        <v>-91</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>240</v>
+      </c>
+      <c r="D81">
+        <v>3018</v>
+      </c>
+      <c r="E81">
+        <v>1485</v>
+      </c>
+      <c r="F81">
+        <v>1074</v>
+      </c>
+      <c r="G81">
+        <v>4273</v>
+      </c>
+      <c r="H81">
+        <v>6583</v>
+      </c>
+      <c r="I81">
+        <v>836</v>
+      </c>
+      <c r="J81">
+        <v>2388</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1441</v>
+      </c>
+      <c r="O81">
+        <v>4208</v>
+      </c>
+      <c r="P81">
+        <v>2400</v>
+      </c>
+      <c r="Q81">
+        <v>-744</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>2375</v>
+      </c>
+      <c r="U81">
+        <v>859</v>
+      </c>
+      <c r="V81">
+        <v>311</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>-1011</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>168</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>2941</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>1474</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>1027</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>3919</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>6295</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>779</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>2389</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>1441</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>4202</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>2616</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-274</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>21800</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>2093</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>585</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>336</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
         <v>-579</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>162</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>168</v>
       </c>
     </row>
